--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_17_15.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_17_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>24849.61759360948</v>
+        <v>13271.86817383287</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19842964.15649631</v>
+        <v>19842964.15649633</v>
       </c>
     </row>
     <row r="9">
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>59.47267904092699</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>59.47267904092708</v>
+        <v>59.47267904092699</v>
       </c>
       <c r="H11" t="n">
-        <v>58.51046826933173</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>53.34574647084389</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,13 +1417,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>34.94015068046659</v>
       </c>
       <c r="S11" t="n">
-        <v>59.47267904092708</v>
+        <v>17.44338501878188</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>59.47267904092699</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1454,25 +1454,25 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>59.47267904092699</v>
       </c>
       <c r="E12" t="n">
-        <v>18.21181497516198</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>59.47267904092708</v>
+        <v>59.47267904092699</v>
       </c>
       <c r="G12" t="n">
-        <v>59.47267904092708</v>
+        <v>59.47267904092699</v>
       </c>
       <c r="H12" t="n">
-        <v>59.47267904092708</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>24.94788119063589</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>9.223839533450679</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>52.38353569924848</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1566,10 +1566,10 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>3.213959012517101</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>5.458734903852712</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>8.672693916369736</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>59.47267904092703</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>59.47267904092703</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1621,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>59.47267904092705</v>
+        <v>52.3835356992485</v>
       </c>
       <c r="H14" t="n">
-        <v>52.38353569924852</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,10 +1660,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>59.47267904092705</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>59.47267904092705</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>59.47267904092703</v>
       </c>
     </row>
     <row r="15">
@@ -1694,22 +1694,22 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>18.21181497516192</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>59.47267904092705</v>
+        <v>59.47267904092703</v>
       </c>
       <c r="G15" t="n">
-        <v>59.47267904092705</v>
+        <v>59.47267904092703</v>
       </c>
       <c r="H15" t="n">
-        <v>59.47267904092705</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>24.94788119063589</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>9.223839533450679</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1736,13 +1736,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>59.47267904092703</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>52.3835356992485</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>8.672693916369813</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>8.672693916369735</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1855,16 +1855,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>35.67678135456943</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>75.94786280235955</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>51.06139321367296</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,16 +1891,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>15.83348434264527</v>
+        <v>31.21809620174884</v>
       </c>
       <c r="S17" t="n">
-        <v>75.94786280235945</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>75.94786280235945</v>
+        <v>75.94786280235955</v>
       </c>
       <c r="U17" t="n">
-        <v>75.94786280235945</v>
+        <v>75.94786280235955</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1931,22 +1931,22 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>17.99718910885666</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>75.94786280235945</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>75.94786280235945</v>
+        <v>75.94786280235955</v>
       </c>
       <c r="H18" t="n">
-        <v>65.42529764590962</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>23.85634635615707</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>6.228584518226683</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>29.33532272952762</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>75.94786280235955</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>75.94786280235955</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>66.89487755631828</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>21.14745823304579</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>21.14745823304598</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2086,19 +2086,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>75.94786280235955</v>
       </c>
       <c r="E20" t="n">
-        <v>66.89487755631819</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>75.94786280235945</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>75.94786280235945</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>75.94786280235945</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>66.89487755631825</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>75.94786280235955</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>75.94786280235955</v>
       </c>
     </row>
     <row r="21">
@@ -2168,13 +2168,13 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>66.89487755631819</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>75.94786280235945</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>75.94786280235945</v>
+        <v>75.94786280235955</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2210,13 +2210,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>66.89487755631825</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>75.94786280235955</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>75.94786280235955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2225,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>75.94786280235945</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2262,10 +2262,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>15.43521272596422</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>5.712245507081576</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>21.14745823304598</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>66.89487755631816</v>
       </c>
       <c r="C23" t="n">
-        <v>66.89487755631819</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>75.94786280235944</v>
+        <v>75.94786280235941</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>75.94786280235941</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>75.94786280235944</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>75.94786280235944</v>
+        <v>75.94786280235941</v>
       </c>
     </row>
     <row r="24">
@@ -2405,22 +2405,22 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>75.94786280235944</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>75.94786280235944</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>75.94786280235941</v>
       </c>
       <c r="H24" t="n">
-        <v>65.42529764590962</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1.469579910408569</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2456,13 +2456,13 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>75.94786280235941</v>
       </c>
       <c r="W24" t="n">
-        <v>75.94786280235944</v>
+        <v>75.94786280235941</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>66.89487755631816</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2496,43 +2496,43 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
         <v>21.14745823304576</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2563,13 +2563,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>66.89487755631816</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>75.94786280235941</v>
       </c>
       <c r="G26" t="n">
-        <v>66.89487755631819</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>75.94786280235944</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>75.94786280235941</v>
       </c>
       <c r="W26" t="n">
-        <v>75.94786280235944</v>
+        <v>75.94786280235941</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>75.94786280235944</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2639,13 +2639,13 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>75.94786280235941</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>75.94786280235941</v>
       </c>
       <c r="F27" t="n">
-        <v>66.89487755631819</v>
+        <v>66.89487755631816</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>75.94786280235941</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2693,13 +2693,13 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>75.94786280235944</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>75.94786280235944</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>75.94786280235944</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2715,58 +2715,58 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
         <v>21.14745823304579</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2800,49 +2800,49 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>66.89487755631818</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
         <v>75.9478628023594</v>
-      </c>
-      <c r="F29" t="n">
-        <v>75.9478628023594</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>66.89487755631814</v>
       </c>
       <c r="T29" t="n">
         <v>75.9478628023594</v>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>75.9478628023594</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2870,20 +2870,20 @@
         </is>
       </c>
       <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
         <v>75.9478628023594</v>
       </c>
-      <c r="C30" t="n">
+      <c r="E30" t="n">
+        <v>66.89487755631818</v>
+      </c>
+      <c r="F30" t="n">
         <v>75.9478628023594</v>
       </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>75.9478628023594</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -2933,13 +2933,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>75.9478628023594</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>66.89487755631833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>21.14745823304579</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>21.14745823304574</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3031,19 +3031,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>75.9478628023594</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>75.94786280235941</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>35.67678135456927</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>75.94786280235941</v>
+        <v>75.9478628023594</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3082,16 +3082,16 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>75.94786280235941</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>75.9478628023594</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>35.67678135456927</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3113,16 +3113,16 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>75.9478628023594</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>75.9478628023594</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>66.89487755631835</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>6.228584518226683</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3161,19 +3161,19 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>60.66629303809148</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>75.94786280235941</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>75.94786280235941</v>
+        <v>75.9478628023594</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>75.94786280235941</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3207,37 +3207,37 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
         <v>21.14745823304579</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3265,26 +3265,26 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
         <v>75.9478628023594</v>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
@@ -3313,19 +3313,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>31.21809620174888</v>
       </c>
       <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>35.67678135456924</v>
+      </c>
+      <c r="U35" t="n">
         <v>75.9478628023594</v>
       </c>
-      <c r="T35" t="n">
-        <v>66.89487755631816</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>75.9478628023594</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>75.9478628023594</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3347,25 +3347,25 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>66.89487755631816</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>75.9478628023594</v>
       </c>
-      <c r="D36" t="n">
+      <c r="G36" t="n">
         <v>75.9478628023594</v>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
       <c r="H36" t="n">
-        <v>43.03853120016112</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>23.85634635615707</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3401,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>75.9478628023594</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3413,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>75.9478628023594</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>21.14745823304574</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>21.14745823304579</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3511,10 +3511,10 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>75.9478628023594</v>
       </c>
       <c r="F38" t="n">
-        <v>66.89487755631818</v>
+        <v>35.67678135456927</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3550,19 +3550,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>31.21809620174888</v>
       </c>
       <c r="S38" t="n">
         <v>75.9478628023594</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>75.9478628023594</v>
       </c>
       <c r="U38" t="n">
-        <v>75.9478628023594</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>75.9478628023594</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3590,61 +3590,61 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>66.89487755631835</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
         <v>75.9478628023594</v>
       </c>
-      <c r="F39" t="n">
-        <v>66.89487755631835</v>
-      </c>
-      <c r="G39" t="n">
+      <c r="T39" t="n">
         <v>75.9478628023594</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0</v>
-      </c>
-      <c r="R39" t="n">
-        <v>0</v>
-      </c>
-      <c r="S39" t="n">
-        <v>0</v>
-      </c>
-      <c r="T39" t="n">
-        <v>0</v>
-      </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="n">
         <v>75.9478628023594</v>
-      </c>
-      <c r="W39" t="n">
-        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>21.14745823304579</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3684,10 +3684,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>15.43521272596421</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>5.712245507081576</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -3742,19 +3742,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>75.9478628023594</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>75.9478628023594</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>75.9478628023594</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>35.67678135456927</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>31.21809620174888</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>75.94786280235941</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>75.94786280235941</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>35.67678135456927</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>75.94786280235941</v>
       </c>
     </row>
     <row r="42">
@@ -3818,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>48.08211998324035</v>
       </c>
       <c r="C42" t="n">
-        <v>66.89487755631818</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3833,10 +3833,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>75.94786280235941</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>65.42529764590962</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3866,16 +3866,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.33532272952762</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>75.94786280235941</v>
       </c>
       <c r="T42" t="n">
-        <v>75.9478628023594</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>75.9478628023594</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3884,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>75.9478628023594</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
         <v>21.14745823304579</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3979,22 +3979,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>66.89487755631816</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>75.94786280235937</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>75.94786280235937</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>75.94786280235941</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,10 +4030,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>75.94786280235941</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>75.94786280235941</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>66.89487755631814</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>75.94786280235937</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4061,7 +4061,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>75.94786280235937</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.85634635615707</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4112,19 +4112,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>75.94786280235937</v>
+        <v>75.94786280235941</v>
       </c>
       <c r="V45" t="n">
-        <v>75.94786280235937</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>43.03853120016103</v>
+        <v>75.94786280235941</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>66.89487755631828</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>75.94786280235941</v>
       </c>
     </row>
     <row r="46">
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>21.14745823304579</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>21.14745823304579</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>177.8173029910547</v>
+        <v>124.9046406685812</v>
       </c>
       <c r="C11" t="n">
-        <v>177.8173029910547</v>
+        <v>124.9046406685812</v>
       </c>
       <c r="D11" t="n">
-        <v>177.8173029910547</v>
+        <v>64.83122749592769</v>
       </c>
       <c r="E11" t="n">
-        <v>177.8173029910547</v>
+        <v>64.83122749592769</v>
       </c>
       <c r="F11" t="n">
-        <v>177.8173029910547</v>
+        <v>64.83122749592769</v>
       </c>
       <c r="G11" t="n">
-        <v>117.7438898184011</v>
+        <v>4.757814323274159</v>
       </c>
       <c r="H11" t="n">
-        <v>58.64240671806598</v>
+        <v>4.757814323274159</v>
       </c>
       <c r="I11" t="n">
-        <v>4.757814323274167</v>
+        <v>4.757814323274159</v>
       </c>
       <c r="J11" t="n">
-        <v>4.757814323274167</v>
+        <v>4.757814323274159</v>
       </c>
       <c r="K11" t="n">
-        <v>21.50623620569132</v>
+        <v>21.50623620569115</v>
       </c>
       <c r="L11" t="n">
-        <v>57.22934810006518</v>
+        <v>57.22934810006493</v>
       </c>
       <c r="M11" t="n">
-        <v>109.8043153541836</v>
+        <v>109.8043153541833</v>
       </c>
       <c r="N11" t="n">
-        <v>165.098592937337</v>
+        <v>165.0985929373367</v>
       </c>
       <c r="O11" t="n">
-        <v>211.9106304927802</v>
+        <v>211.9106304927799</v>
       </c>
       <c r="P11" t="n">
-        <v>237.8907161637083</v>
+        <v>237.890716163708</v>
       </c>
       <c r="Q11" t="n">
-        <v>237.8907161637083</v>
+        <v>237.890716163708</v>
       </c>
       <c r="R11" t="n">
-        <v>237.8907161637083</v>
+        <v>202.5976346682872</v>
       </c>
       <c r="S11" t="n">
-        <v>177.8173029910547</v>
+        <v>184.9780538412348</v>
       </c>
       <c r="T11" t="n">
-        <v>177.8173029910547</v>
+        <v>124.9046406685812</v>
       </c>
       <c r="U11" t="n">
-        <v>177.8173029910547</v>
+        <v>124.9046406685812</v>
       </c>
       <c r="V11" t="n">
-        <v>177.8173029910547</v>
+        <v>124.9046406685812</v>
       </c>
       <c r="W11" t="n">
-        <v>177.8173029910547</v>
+        <v>124.9046406685812</v>
       </c>
       <c r="X11" t="n">
-        <v>177.8173029910547</v>
+        <v>124.9046406685812</v>
       </c>
       <c r="Y11" t="n">
-        <v>177.8173029910547</v>
+        <v>124.9046406685812</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>237.8907161637083</v>
+        <v>184.9780538412348</v>
       </c>
       <c r="C12" t="n">
-        <v>237.8907161637083</v>
+        <v>184.9780538412348</v>
       </c>
       <c r="D12" t="n">
-        <v>237.8907161637083</v>
+        <v>124.9046406685812</v>
       </c>
       <c r="E12" t="n">
-        <v>219.4949434615245</v>
+        <v>124.9046406685812</v>
       </c>
       <c r="F12" t="n">
-        <v>159.4215302888709</v>
+        <v>64.83122749592769</v>
       </c>
       <c r="G12" t="n">
-        <v>99.34811711621725</v>
+        <v>4.757814323274159</v>
       </c>
       <c r="H12" t="n">
-        <v>39.27470394356364</v>
+        <v>4.757814323274159</v>
       </c>
       <c r="I12" t="n">
-        <v>14.07482395302233</v>
+        <v>4.757814323274159</v>
       </c>
       <c r="J12" t="n">
-        <v>4.757814323274167</v>
+        <v>4.757814323274159</v>
       </c>
       <c r="K12" t="n">
-        <v>20.80315753179815</v>
+        <v>20.80315753179811</v>
       </c>
       <c r="L12" t="n">
-        <v>61.13873076183458</v>
+        <v>61.1387307618345</v>
       </c>
       <c r="M12" t="n">
-        <v>116.0479738249752</v>
+        <v>100.2511901269134</v>
       </c>
       <c r="N12" t="n">
-        <v>174.925926075493</v>
+        <v>159.1291423774312</v>
       </c>
       <c r="O12" t="n">
-        <v>207.0291700560335</v>
+        <v>207.0291700560331</v>
       </c>
       <c r="P12" t="n">
-        <v>237.6432733806197</v>
+        <v>237.6432733806194</v>
       </c>
       <c r="Q12" t="n">
-        <v>237.8907161637083</v>
+        <v>237.890716163708</v>
       </c>
       <c r="R12" t="n">
-        <v>237.8907161637083</v>
+        <v>237.890716163708</v>
       </c>
       <c r="S12" t="n">
-        <v>237.8907161637083</v>
+        <v>184.9780538412348</v>
       </c>
       <c r="T12" t="n">
-        <v>237.8907161637083</v>
+        <v>184.9780538412348</v>
       </c>
       <c r="U12" t="n">
-        <v>237.8907161637083</v>
+        <v>184.9780538412348</v>
       </c>
       <c r="V12" t="n">
-        <v>237.8907161637083</v>
+        <v>184.9780538412348</v>
       </c>
       <c r="W12" t="n">
-        <v>237.8907161637083</v>
+        <v>184.9780538412348</v>
       </c>
       <c r="X12" t="n">
-        <v>237.8907161637083</v>
+        <v>184.9780538412348</v>
       </c>
       <c r="Y12" t="n">
-        <v>237.8907161637083</v>
+        <v>184.9780538412348</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.757814323274167</v>
+        <v>4.757814323274159</v>
       </c>
       <c r="C13" t="n">
-        <v>4.757814323274167</v>
+        <v>4.757814323274159</v>
       </c>
       <c r="D13" t="n">
-        <v>4.757814323274167</v>
+        <v>4.757814323274159</v>
       </c>
       <c r="E13" t="n">
-        <v>4.757814323274167</v>
+        <v>4.757814323274159</v>
       </c>
       <c r="F13" t="n">
-        <v>4.757814323274167</v>
+        <v>4.757814323274159</v>
       </c>
       <c r="G13" t="n">
-        <v>4.757814323274167</v>
+        <v>4.757814323274159</v>
       </c>
       <c r="H13" t="n">
-        <v>4.757814323274167</v>
+        <v>4.757814323274159</v>
       </c>
       <c r="I13" t="n">
-        <v>4.757814323274167</v>
+        <v>4.757814323274159</v>
       </c>
       <c r="J13" t="n">
-        <v>4.757814323274167</v>
+        <v>4.757814323274159</v>
       </c>
       <c r="K13" t="n">
-        <v>4.757814323274167</v>
+        <v>4.757814323274159</v>
       </c>
       <c r="L13" t="n">
-        <v>5.721013004350156</v>
+        <v>5.72101300435012</v>
       </c>
       <c r="M13" t="n">
-        <v>8.056175583866654</v>
+        <v>8.056175583866597</v>
       </c>
       <c r="N13" t="n">
-        <v>13.5181112084962</v>
+        <v>13.51811120849612</v>
       </c>
       <c r="O13" t="n">
-        <v>10.27168796352943</v>
+        <v>13.51811120849612</v>
       </c>
       <c r="P13" t="n">
-        <v>4.757814323274167</v>
+        <v>13.51811120849612</v>
       </c>
       <c r="Q13" t="n">
-        <v>4.757814323274167</v>
+        <v>13.51811120849612</v>
       </c>
       <c r="R13" t="n">
-        <v>4.757814323274167</v>
+        <v>13.51811120849612</v>
       </c>
       <c r="S13" t="n">
-        <v>4.757814323274167</v>
+        <v>13.51811120849612</v>
       </c>
       <c r="T13" t="n">
-        <v>4.757814323274167</v>
+        <v>13.51811120849612</v>
       </c>
       <c r="U13" t="n">
-        <v>4.757814323274167</v>
+        <v>13.51811120849612</v>
       </c>
       <c r="V13" t="n">
-        <v>4.757814323274167</v>
+        <v>13.51811120849612</v>
       </c>
       <c r="W13" t="n">
-        <v>4.757814323274167</v>
+        <v>4.757814323274159</v>
       </c>
       <c r="X13" t="n">
-        <v>4.757814323274167</v>
+        <v>4.757814323274159</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.757814323274167</v>
+        <v>4.757814323274159</v>
       </c>
     </row>
     <row r="14">
@@ -5257,73 +5257,73 @@
         <v>117.743889818401</v>
       </c>
       <c r="C14" t="n">
-        <v>117.743889818401</v>
+        <v>57.67047664574739</v>
       </c>
       <c r="D14" t="n">
-        <v>117.743889818401</v>
+        <v>57.67047664574739</v>
       </c>
       <c r="E14" t="n">
-        <v>117.743889818401</v>
+        <v>57.67047664574739</v>
       </c>
       <c r="F14" t="n">
-        <v>117.743889818401</v>
+        <v>57.67047664574739</v>
       </c>
       <c r="G14" t="n">
-        <v>57.67047664574741</v>
+        <v>4.757814323274162</v>
       </c>
       <c r="H14" t="n">
-        <v>4.757814323274164</v>
+        <v>4.757814323274162</v>
       </c>
       <c r="I14" t="n">
-        <v>4.757814323274164</v>
+        <v>4.757814323274162</v>
       </c>
       <c r="J14" t="n">
-        <v>4.757814323274164</v>
+        <v>4.757814323274162</v>
       </c>
       <c r="K14" t="n">
-        <v>21.50623620569126</v>
+        <v>21.50623620569127</v>
       </c>
       <c r="L14" t="n">
-        <v>57.22934810006512</v>
+        <v>57.22934810006518</v>
       </c>
       <c r="M14" t="n">
-        <v>109.8043153541836</v>
+        <v>109.8043153541835</v>
       </c>
       <c r="N14" t="n">
-        <v>165.098592937337</v>
+        <v>165.0985929373368</v>
       </c>
       <c r="O14" t="n">
-        <v>211.9106304927802</v>
+        <v>211.91063049278</v>
       </c>
       <c r="P14" t="n">
-        <v>237.8907161637082</v>
+        <v>237.8907161637081</v>
       </c>
       <c r="Q14" t="n">
-        <v>237.8907161637082</v>
+        <v>237.8907161637081</v>
       </c>
       <c r="R14" t="n">
-        <v>237.8907161637082</v>
+        <v>237.8907161637081</v>
       </c>
       <c r="S14" t="n">
-        <v>237.8907161637082</v>
+        <v>237.8907161637081</v>
       </c>
       <c r="T14" t="n">
-        <v>177.8173029910546</v>
+        <v>237.8907161637081</v>
       </c>
       <c r="U14" t="n">
-        <v>117.743889818401</v>
+        <v>237.8907161637081</v>
       </c>
       <c r="V14" t="n">
-        <v>117.743889818401</v>
+        <v>237.8907161637081</v>
       </c>
       <c r="W14" t="n">
-        <v>117.743889818401</v>
+        <v>237.8907161637081</v>
       </c>
       <c r="X14" t="n">
-        <v>117.743889818401</v>
+        <v>237.8907161637081</v>
       </c>
       <c r="Y14" t="n">
-        <v>117.743889818401</v>
+        <v>177.8173029910545</v>
       </c>
     </row>
     <row r="15">
@@ -5333,40 +5333,40 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>237.8907161637082</v>
+        <v>124.9046406685813</v>
       </c>
       <c r="C15" t="n">
-        <v>237.8907161637082</v>
+        <v>124.9046406685813</v>
       </c>
       <c r="D15" t="n">
-        <v>237.8907161637082</v>
+        <v>124.9046406685813</v>
       </c>
       <c r="E15" t="n">
-        <v>219.4949434615244</v>
+        <v>124.9046406685813</v>
       </c>
       <c r="F15" t="n">
-        <v>159.4215302888708</v>
+        <v>64.83122749592773</v>
       </c>
       <c r="G15" t="n">
-        <v>99.34811711621722</v>
+        <v>4.757814323274162</v>
       </c>
       <c r="H15" t="n">
-        <v>39.27470394356364</v>
+        <v>4.757814323274162</v>
       </c>
       <c r="I15" t="n">
-        <v>14.07482395302232</v>
+        <v>4.757814323274162</v>
       </c>
       <c r="J15" t="n">
-        <v>4.757814323274164</v>
+        <v>4.757814323274162</v>
       </c>
       <c r="K15" t="n">
-        <v>5.006373833736468</v>
+        <v>5.006373833736639</v>
       </c>
       <c r="L15" t="n">
-        <v>45.34194706377291</v>
+        <v>45.34194706377303</v>
       </c>
       <c r="M15" t="n">
-        <v>100.2511901269135</v>
+        <v>100.2511901269136</v>
       </c>
       <c r="N15" t="n">
         <v>159.1291423774313</v>
@@ -5375,34 +5375,34 @@
         <v>207.0291700560333</v>
       </c>
       <c r="P15" t="n">
-        <v>237.6432733806196</v>
+        <v>237.6432733806195</v>
       </c>
       <c r="Q15" t="n">
-        <v>237.8907161637082</v>
+        <v>237.8907161637081</v>
       </c>
       <c r="R15" t="n">
-        <v>237.8907161637082</v>
+        <v>237.8907161637081</v>
       </c>
       <c r="S15" t="n">
-        <v>237.8907161637082</v>
+        <v>177.8173029910545</v>
       </c>
       <c r="T15" t="n">
-        <v>237.8907161637082</v>
+        <v>177.8173029910545</v>
       </c>
       <c r="U15" t="n">
-        <v>237.8907161637082</v>
+        <v>124.9046406685813</v>
       </c>
       <c r="V15" t="n">
-        <v>237.8907161637082</v>
+        <v>124.9046406685813</v>
       </c>
       <c r="W15" t="n">
-        <v>237.8907161637082</v>
+        <v>124.9046406685813</v>
       </c>
       <c r="X15" t="n">
-        <v>237.8907161637082</v>
+        <v>124.9046406685813</v>
       </c>
       <c r="Y15" t="n">
-        <v>237.8907161637082</v>
+        <v>124.9046406685813</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>13.5181112084962</v>
+        <v>4.757814323274162</v>
       </c>
       <c r="C16" t="n">
-        <v>13.5181112084962</v>
+        <v>4.757814323274162</v>
       </c>
       <c r="D16" t="n">
-        <v>13.5181112084962</v>
+        <v>4.757814323274162</v>
       </c>
       <c r="E16" t="n">
-        <v>13.5181112084962</v>
+        <v>4.757814323274162</v>
       </c>
       <c r="F16" t="n">
-        <v>13.5181112084962</v>
+        <v>4.757814323274162</v>
       </c>
       <c r="G16" t="n">
-        <v>13.5181112084962</v>
+        <v>4.757814323274162</v>
       </c>
       <c r="H16" t="n">
-        <v>13.5181112084962</v>
+        <v>4.757814323274162</v>
       </c>
       <c r="I16" t="n">
-        <v>13.5181112084962</v>
+        <v>4.757814323274162</v>
       </c>
       <c r="J16" t="n">
-        <v>13.5181112084962</v>
+        <v>4.757814323274162</v>
       </c>
       <c r="K16" t="n">
-        <v>4.757814323274164</v>
+        <v>4.757814323274162</v>
       </c>
       <c r="L16" t="n">
-        <v>5.721013004350152</v>
+        <v>5.721013004350123</v>
       </c>
       <c r="M16" t="n">
-        <v>8.056175583866651</v>
+        <v>8.056175583866599</v>
       </c>
       <c r="N16" t="n">
-        <v>13.5181112084962</v>
+        <v>13.51811120849612</v>
       </c>
       <c r="O16" t="n">
-        <v>13.5181112084962</v>
+        <v>13.51811120849612</v>
       </c>
       <c r="P16" t="n">
-        <v>13.5181112084962</v>
+        <v>13.51811120849612</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.5181112084962</v>
+        <v>13.51811120849612</v>
       </c>
       <c r="R16" t="n">
-        <v>13.5181112084962</v>
+        <v>13.51811120849612</v>
       </c>
       <c r="S16" t="n">
-        <v>13.5181112084962</v>
+        <v>13.51811120849612</v>
       </c>
       <c r="T16" t="n">
-        <v>13.5181112084962</v>
+        <v>13.51811120849612</v>
       </c>
       <c r="U16" t="n">
-        <v>13.5181112084962</v>
+        <v>13.51811120849612</v>
       </c>
       <c r="V16" t="n">
-        <v>13.5181112084962</v>
+        <v>13.51811120849612</v>
       </c>
       <c r="W16" t="n">
-        <v>13.5181112084962</v>
+        <v>13.51811120849612</v>
       </c>
       <c r="X16" t="n">
-        <v>13.5181112084962</v>
+        <v>4.757814323274162</v>
       </c>
       <c r="Y16" t="n">
-        <v>13.5181112084962</v>
+        <v>4.757814323274162</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>57.65299388648468</v>
+        <v>118.8279948392686</v>
       </c>
       <c r="C17" t="n">
-        <v>57.65299388648468</v>
+        <v>118.8279948392686</v>
       </c>
       <c r="D17" t="n">
-        <v>57.65299388648468</v>
+        <v>118.8279948392686</v>
       </c>
       <c r="E17" t="n">
-        <v>57.65299388648468</v>
+        <v>118.8279948392686</v>
       </c>
       <c r="F17" t="n">
-        <v>57.65299388648468</v>
+        <v>82.79084195586509</v>
       </c>
       <c r="G17" t="n">
-        <v>57.65299388648468</v>
+        <v>6.075829024188764</v>
       </c>
       <c r="H17" t="n">
-        <v>57.65299388648468</v>
+        <v>6.075829024188764</v>
       </c>
       <c r="I17" t="n">
-        <v>6.075829024188756</v>
+        <v>6.075829024188764</v>
       </c>
       <c r="J17" t="n">
-        <v>8.518653200747959</v>
+        <v>8.518653200747963</v>
       </c>
       <c r="K17" t="n">
-        <v>32.7289132941887</v>
+        <v>32.72891329418883</v>
       </c>
       <c r="L17" t="n">
-        <v>77.70909531020686</v>
+        <v>77.70909531020709</v>
       </c>
       <c r="M17" t="n">
-        <v>140.5843367211124</v>
+        <v>140.5843367211127</v>
       </c>
       <c r="N17" t="n">
-        <v>206.3455576655147</v>
+        <v>206.3455576655152</v>
       </c>
       <c r="O17" t="n">
-        <v>263.0412330294157</v>
+        <v>263.0412330294162</v>
       </c>
       <c r="P17" t="n">
-        <v>297.4567749038204</v>
+        <v>297.4567749038207</v>
       </c>
       <c r="Q17" t="n">
-        <v>303.7914512094378</v>
+        <v>303.7914512094382</v>
       </c>
       <c r="R17" t="n">
-        <v>287.7980326815133</v>
+        <v>272.2580207026212</v>
       </c>
       <c r="S17" t="n">
-        <v>211.0830197498371</v>
+        <v>272.2580207026212</v>
       </c>
       <c r="T17" t="n">
-        <v>134.3680068181609</v>
+        <v>195.5430077709449</v>
       </c>
       <c r="U17" t="n">
-        <v>57.65299388648468</v>
+        <v>118.8279948392686</v>
       </c>
       <c r="V17" t="n">
-        <v>57.65299388648468</v>
+        <v>118.8279948392686</v>
       </c>
       <c r="W17" t="n">
-        <v>57.65299388648468</v>
+        <v>118.8279948392686</v>
       </c>
       <c r="X17" t="n">
-        <v>57.65299388648468</v>
+        <v>118.8279948392686</v>
       </c>
       <c r="Y17" t="n">
-        <v>57.65299388648468</v>
+        <v>118.8279948392686</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>274.1598120887028</v>
+        <v>82.79084195586509</v>
       </c>
       <c r="C18" t="n">
-        <v>274.1598120887028</v>
+        <v>82.79084195586509</v>
       </c>
       <c r="D18" t="n">
-        <v>274.1598120887028</v>
+        <v>82.79084195586509</v>
       </c>
       <c r="E18" t="n">
-        <v>255.9808331908678</v>
+        <v>82.79084195586509</v>
       </c>
       <c r="F18" t="n">
-        <v>179.2658202591916</v>
+        <v>82.79084195586509</v>
       </c>
       <c r="G18" t="n">
-        <v>102.5508073275154</v>
+        <v>6.075829024188764</v>
       </c>
       <c r="H18" t="n">
-        <v>36.46464808922285</v>
+        <v>6.075829024188764</v>
       </c>
       <c r="I18" t="n">
-        <v>12.36732853754904</v>
+        <v>6.075829024188764</v>
       </c>
       <c r="J18" t="n">
-        <v>6.075829024188756</v>
+        <v>6.075829024188764</v>
       </c>
       <c r="K18" t="n">
-        <v>27.189346451948</v>
+        <v>27.18934645194804</v>
       </c>
       <c r="L18" t="n">
-        <v>74.33970537129215</v>
+        <v>74.33970537129233</v>
       </c>
       <c r="M18" t="n">
-        <v>137.2014819011796</v>
+        <v>137.2014819011798</v>
       </c>
       <c r="N18" t="n">
-        <v>207.562523795637</v>
+        <v>207.5625237956373</v>
       </c>
       <c r="O18" t="n">
-        <v>262.9301139282917</v>
+        <v>262.930113928292</v>
       </c>
       <c r="P18" t="n">
-        <v>299.5375944741906</v>
+        <v>299.5375944741909</v>
       </c>
       <c r="Q18" t="n">
-        <v>303.7914512094378</v>
+        <v>303.7914512094382</v>
       </c>
       <c r="R18" t="n">
-        <v>274.1598120887028</v>
+        <v>303.7914512094382</v>
       </c>
       <c r="S18" t="n">
-        <v>274.1598120887028</v>
+        <v>227.0764382777619</v>
       </c>
       <c r="T18" t="n">
-        <v>274.1598120887028</v>
+        <v>150.3614253460856</v>
       </c>
       <c r="U18" t="n">
-        <v>274.1598120887028</v>
+        <v>82.79084195586509</v>
       </c>
       <c r="V18" t="n">
-        <v>274.1598120887028</v>
+        <v>82.79084195586509</v>
       </c>
       <c r="W18" t="n">
-        <v>274.1598120887028</v>
+        <v>82.79084195586509</v>
       </c>
       <c r="X18" t="n">
-        <v>274.1598120887028</v>
+        <v>82.79084195586509</v>
       </c>
       <c r="Y18" t="n">
-        <v>274.1598120887028</v>
+        <v>82.79084195586509</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>27.43689794645724</v>
+        <v>6.075829024188764</v>
       </c>
       <c r="C19" t="n">
-        <v>27.43689794645724</v>
+        <v>6.075829024188764</v>
       </c>
       <c r="D19" t="n">
-        <v>27.43689794645724</v>
+        <v>6.075829024188764</v>
       </c>
       <c r="E19" t="n">
-        <v>27.43689794645724</v>
+        <v>6.075829024188764</v>
       </c>
       <c r="F19" t="n">
-        <v>6.075829024188756</v>
+        <v>6.075829024188764</v>
       </c>
       <c r="G19" t="n">
-        <v>6.075829024188756</v>
+        <v>6.075829024188764</v>
       </c>
       <c r="H19" t="n">
-        <v>6.075829024188756</v>
+        <v>6.075829024188764</v>
       </c>
       <c r="I19" t="n">
-        <v>6.075829024188756</v>
+        <v>6.075829024188764</v>
       </c>
       <c r="J19" t="n">
-        <v>6.075829024188756</v>
+        <v>6.075829024188764</v>
       </c>
       <c r="K19" t="n">
-        <v>6.075829024188756</v>
+        <v>6.075829024188764</v>
       </c>
       <c r="L19" t="n">
-        <v>10.95106657773216</v>
+        <v>10.95106657773221</v>
       </c>
       <c r="M19" t="n">
-        <v>17.41092563994131</v>
+        <v>17.41092563994141</v>
       </c>
       <c r="N19" t="n">
-        <v>26.89948168405503</v>
+        <v>26.89948168405517</v>
       </c>
       <c r="O19" t="n">
-        <v>27.43689794645724</v>
+        <v>27.43689794645743</v>
       </c>
       <c r="P19" t="n">
-        <v>27.43689794645724</v>
+        <v>27.43689794645743</v>
       </c>
       <c r="Q19" t="n">
-        <v>27.43689794645724</v>
+        <v>27.43689794645743</v>
       </c>
       <c r="R19" t="n">
-        <v>27.43689794645724</v>
+        <v>27.43689794645743</v>
       </c>
       <c r="S19" t="n">
-        <v>27.43689794645724</v>
+        <v>27.43689794645743</v>
       </c>
       <c r="T19" t="n">
-        <v>27.43689794645724</v>
+        <v>27.43689794645743</v>
       </c>
       <c r="U19" t="n">
-        <v>27.43689794645724</v>
+        <v>6.075829024188764</v>
       </c>
       <c r="V19" t="n">
-        <v>27.43689794645724</v>
+        <v>6.075829024188764</v>
       </c>
       <c r="W19" t="n">
-        <v>27.43689794645724</v>
+        <v>6.075829024188764</v>
       </c>
       <c r="X19" t="n">
-        <v>27.43689794645724</v>
+        <v>6.075829024188764</v>
       </c>
       <c r="Y19" t="n">
-        <v>27.43689794645724</v>
+        <v>6.075829024188764</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>303.7914512094378</v>
+        <v>82.79084195586509</v>
       </c>
       <c r="C20" t="n">
-        <v>303.7914512094378</v>
+        <v>82.79084195586509</v>
       </c>
       <c r="D20" t="n">
-        <v>303.7914512094378</v>
+        <v>6.075829024188764</v>
       </c>
       <c r="E20" t="n">
-        <v>236.2208678192174</v>
+        <v>6.075829024188764</v>
       </c>
       <c r="F20" t="n">
-        <v>159.5058548875412</v>
+        <v>6.075829024188764</v>
       </c>
       <c r="G20" t="n">
-        <v>82.79084195586498</v>
+        <v>6.075829024188764</v>
       </c>
       <c r="H20" t="n">
-        <v>6.075829024188756</v>
+        <v>6.075829024188764</v>
       </c>
       <c r="I20" t="n">
-        <v>6.075829024188756</v>
+        <v>6.075829024188764</v>
       </c>
       <c r="J20" t="n">
-        <v>8.518653200747856</v>
+        <v>8.518653200747906</v>
       </c>
       <c r="K20" t="n">
-        <v>32.72891329418871</v>
+        <v>32.72891329418877</v>
       </c>
       <c r="L20" t="n">
-        <v>77.70909531020698</v>
+        <v>77.70909531020703</v>
       </c>
       <c r="M20" t="n">
-        <v>140.5843367211125</v>
+        <v>140.5843367211126</v>
       </c>
       <c r="N20" t="n">
         <v>206.3455576655149</v>
       </c>
       <c r="O20" t="n">
-        <v>263.0412330294158</v>
+        <v>263.0412330294159</v>
       </c>
       <c r="P20" t="n">
-        <v>297.4567749038204</v>
+        <v>297.4567749038207</v>
       </c>
       <c r="Q20" t="n">
-        <v>303.7914512094378</v>
+        <v>303.7914512094382</v>
       </c>
       <c r="R20" t="n">
-        <v>303.7914512094378</v>
+        <v>303.7914512094382</v>
       </c>
       <c r="S20" t="n">
-        <v>303.7914512094378</v>
+        <v>303.7914512094382</v>
       </c>
       <c r="T20" t="n">
-        <v>303.7914512094378</v>
+        <v>236.2208678192177</v>
       </c>
       <c r="U20" t="n">
-        <v>303.7914512094378</v>
+        <v>236.2208678192177</v>
       </c>
       <c r="V20" t="n">
-        <v>303.7914512094378</v>
+        <v>236.2208678192177</v>
       </c>
       <c r="W20" t="n">
-        <v>303.7914512094378</v>
+        <v>236.2208678192177</v>
       </c>
       <c r="X20" t="n">
-        <v>303.7914512094378</v>
+        <v>159.5058548875414</v>
       </c>
       <c r="Y20" t="n">
-        <v>303.7914512094378</v>
+        <v>82.79084195586509</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>227.0764382777616</v>
+        <v>82.79084195586509</v>
       </c>
       <c r="C21" t="n">
-        <v>227.0764382777616</v>
+        <v>82.79084195586509</v>
       </c>
       <c r="D21" t="n">
-        <v>227.0764382777616</v>
+        <v>82.79084195586509</v>
       </c>
       <c r="E21" t="n">
-        <v>159.5058548875412</v>
+        <v>82.79084195586509</v>
       </c>
       <c r="F21" t="n">
-        <v>82.79084195586498</v>
+        <v>82.79084195586509</v>
       </c>
       <c r="G21" t="n">
-        <v>6.075829024188756</v>
+        <v>6.075829024188764</v>
       </c>
       <c r="H21" t="n">
-        <v>6.075829024188756</v>
+        <v>6.075829024188764</v>
       </c>
       <c r="I21" t="n">
-        <v>6.075829024188756</v>
+        <v>6.075829024188764</v>
       </c>
       <c r="J21" t="n">
-        <v>6.075829024188756</v>
+        <v>6.075829024188764</v>
       </c>
       <c r="K21" t="n">
-        <v>27.18934645194802</v>
+        <v>27.1893464519481</v>
       </c>
       <c r="L21" t="n">
-        <v>74.33970537129217</v>
+        <v>74.33970537129233</v>
       </c>
       <c r="M21" t="n">
-        <v>137.2014819011797</v>
+        <v>137.2014819011799</v>
       </c>
       <c r="N21" t="n">
-        <v>207.5625237956371</v>
+        <v>207.5625237956374</v>
       </c>
       <c r="O21" t="n">
-        <v>262.9301139282917</v>
+        <v>262.930113928292</v>
       </c>
       <c r="P21" t="n">
-        <v>299.5375944741906</v>
+        <v>299.5375944741909</v>
       </c>
       <c r="Q21" t="n">
-        <v>303.7914512094378</v>
+        <v>303.7914512094382</v>
       </c>
       <c r="R21" t="n">
-        <v>303.7914512094378</v>
+        <v>303.7914512094382</v>
       </c>
       <c r="S21" t="n">
-        <v>303.7914512094378</v>
+        <v>236.2208678192177</v>
       </c>
       <c r="T21" t="n">
-        <v>303.7914512094378</v>
+        <v>159.5058548875414</v>
       </c>
       <c r="U21" t="n">
-        <v>303.7914512094378</v>
+        <v>82.79084195586509</v>
       </c>
       <c r="V21" t="n">
-        <v>303.7914512094378</v>
+        <v>82.79084195586509</v>
       </c>
       <c r="W21" t="n">
-        <v>303.7914512094378</v>
+        <v>82.79084195586509</v>
       </c>
       <c r="X21" t="n">
-        <v>227.0764382777616</v>
+        <v>82.79084195586509</v>
       </c>
       <c r="Y21" t="n">
-        <v>227.0764382777616</v>
+        <v>82.79084195586509</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>27.43689794645724</v>
+        <v>6.075829024188764</v>
       </c>
       <c r="C22" t="n">
-        <v>27.43689794645724</v>
+        <v>6.075829024188764</v>
       </c>
       <c r="D22" t="n">
-        <v>27.43689794645724</v>
+        <v>6.075829024188764</v>
       </c>
       <c r="E22" t="n">
-        <v>27.43689794645724</v>
+        <v>6.075829024188764</v>
       </c>
       <c r="F22" t="n">
-        <v>27.43689794645724</v>
+        <v>6.075829024188764</v>
       </c>
       <c r="G22" t="n">
-        <v>27.43689794645724</v>
+        <v>6.075829024188764</v>
       </c>
       <c r="H22" t="n">
-        <v>27.43689794645724</v>
+        <v>6.075829024188764</v>
       </c>
       <c r="I22" t="n">
-        <v>27.43689794645724</v>
+        <v>6.075829024188764</v>
       </c>
       <c r="J22" t="n">
-        <v>11.84577398083681</v>
+        <v>6.075829024188764</v>
       </c>
       <c r="K22" t="n">
-        <v>6.075829024188756</v>
+        <v>6.075829024188764</v>
       </c>
       <c r="L22" t="n">
-        <v>10.95106657773216</v>
+        <v>10.95106657773221</v>
       </c>
       <c r="M22" t="n">
-        <v>17.41092563994131</v>
+        <v>17.41092563994141</v>
       </c>
       <c r="N22" t="n">
-        <v>26.89948168405503</v>
+        <v>26.89948168405517</v>
       </c>
       <c r="O22" t="n">
-        <v>27.43689794645724</v>
+        <v>27.43689794645743</v>
       </c>
       <c r="P22" t="n">
-        <v>27.43689794645724</v>
+        <v>27.43689794645743</v>
       </c>
       <c r="Q22" t="n">
-        <v>27.43689794645724</v>
+        <v>27.43689794645743</v>
       </c>
       <c r="R22" t="n">
-        <v>27.43689794645724</v>
+        <v>27.43689794645743</v>
       </c>
       <c r="S22" t="n">
-        <v>27.43689794645724</v>
+        <v>27.43689794645743</v>
       </c>
       <c r="T22" t="n">
-        <v>27.43689794645724</v>
+        <v>6.075829024188764</v>
       </c>
       <c r="U22" t="n">
-        <v>27.43689794645724</v>
+        <v>6.075829024188764</v>
       </c>
       <c r="V22" t="n">
-        <v>27.43689794645724</v>
+        <v>6.075829024188764</v>
       </c>
       <c r="W22" t="n">
-        <v>27.43689794645724</v>
+        <v>6.075829024188764</v>
       </c>
       <c r="X22" t="n">
-        <v>27.43689794645724</v>
+        <v>6.075829024188764</v>
       </c>
       <c r="Y22" t="n">
-        <v>27.43689794645724</v>
+        <v>6.075829024188764</v>
       </c>
     </row>
     <row r="23">
@@ -5965,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>150.3614253460854</v>
+        <v>159.5058548875411</v>
       </c>
       <c r="C23" t="n">
-        <v>82.79084195586495</v>
+        <v>159.5058548875411</v>
       </c>
       <c r="D23" t="n">
-        <v>6.075829024188756</v>
+        <v>82.79084195586492</v>
       </c>
       <c r="E23" t="n">
-        <v>6.075829024188756</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="F23" t="n">
-        <v>6.075829024188756</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="G23" t="n">
-        <v>6.075829024188756</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="H23" t="n">
-        <v>6.075829024188756</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="I23" t="n">
-        <v>6.075829024188756</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="J23" t="n">
-        <v>8.518653200747853</v>
+        <v>8.518653200747792</v>
       </c>
       <c r="K23" t="n">
-        <v>32.72891329418871</v>
+        <v>32.72891329418866</v>
       </c>
       <c r="L23" t="n">
-        <v>77.70909531020692</v>
+        <v>77.70909531020686</v>
       </c>
       <c r="M23" t="n">
-        <v>140.5843367211124</v>
+        <v>140.5843367211123</v>
       </c>
       <c r="N23" t="n">
         <v>206.3455576655147</v>
@@ -6007,34 +6007,34 @@
         <v>263.0412330294157</v>
       </c>
       <c r="P23" t="n">
-        <v>297.4567749038203</v>
+        <v>297.4567749038202</v>
       </c>
       <c r="Q23" t="n">
-        <v>303.7914512094378</v>
+        <v>303.7914512094376</v>
       </c>
       <c r="R23" t="n">
-        <v>303.7914512094378</v>
+        <v>303.7914512094376</v>
       </c>
       <c r="S23" t="n">
-        <v>227.0764382777616</v>
+        <v>303.7914512094376</v>
       </c>
       <c r="T23" t="n">
-        <v>227.0764382777616</v>
+        <v>303.7914512094376</v>
       </c>
       <c r="U23" t="n">
-        <v>227.0764382777616</v>
+        <v>303.7914512094376</v>
       </c>
       <c r="V23" t="n">
-        <v>227.0764382777616</v>
+        <v>303.7914512094376</v>
       </c>
       <c r="W23" t="n">
-        <v>227.0764382777616</v>
+        <v>303.7914512094376</v>
       </c>
       <c r="X23" t="n">
-        <v>227.0764382777616</v>
+        <v>303.7914512094376</v>
       </c>
       <c r="Y23" t="n">
-        <v>150.3614253460854</v>
+        <v>227.0764382777615</v>
       </c>
     </row>
     <row r="24">
@@ -6044,34 +6044,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>227.0764382777616</v>
+        <v>82.79084195586492</v>
       </c>
       <c r="C24" t="n">
-        <v>227.0764382777616</v>
+        <v>82.79084195586492</v>
       </c>
       <c r="D24" t="n">
-        <v>227.0764382777616</v>
+        <v>82.79084195586492</v>
       </c>
       <c r="E24" t="n">
-        <v>150.3614253460854</v>
+        <v>82.79084195586492</v>
       </c>
       <c r="F24" t="n">
-        <v>73.64641241440916</v>
+        <v>82.79084195586492</v>
       </c>
       <c r="G24" t="n">
-        <v>73.64641241440916</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="H24" t="n">
-        <v>7.560253176116603</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="I24" t="n">
-        <v>7.560253176116603</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="J24" t="n">
-        <v>6.075829024188756</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="K24" t="n">
-        <v>27.18934645194799</v>
+        <v>27.18934645194798</v>
       </c>
       <c r="L24" t="n">
         <v>74.33970537129213</v>
@@ -6080,40 +6080,40 @@
         <v>137.2014819011796</v>
       </c>
       <c r="N24" t="n">
-        <v>207.562523795637</v>
+        <v>207.5625237956369</v>
       </c>
       <c r="O24" t="n">
         <v>262.9301139282916</v>
       </c>
       <c r="P24" t="n">
-        <v>299.5375944741905</v>
+        <v>299.5375944741904</v>
       </c>
       <c r="Q24" t="n">
-        <v>303.7914512094378</v>
+        <v>303.7914512094376</v>
       </c>
       <c r="R24" t="n">
-        <v>303.7914512094378</v>
+        <v>303.7914512094376</v>
       </c>
       <c r="S24" t="n">
-        <v>303.7914512094378</v>
+        <v>303.7914512094376</v>
       </c>
       <c r="T24" t="n">
-        <v>303.7914512094378</v>
+        <v>303.7914512094376</v>
       </c>
       <c r="U24" t="n">
-        <v>303.7914512094378</v>
+        <v>303.7914512094376</v>
       </c>
       <c r="V24" t="n">
-        <v>303.7914512094378</v>
+        <v>227.0764382777615</v>
       </c>
       <c r="W24" t="n">
-        <v>227.0764382777616</v>
+        <v>150.3614253460853</v>
       </c>
       <c r="X24" t="n">
-        <v>227.0764382777616</v>
+        <v>82.79084195586492</v>
       </c>
       <c r="Y24" t="n">
-        <v>227.0764382777616</v>
+        <v>82.79084195586492</v>
       </c>
     </row>
     <row r="25">
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>27.43689794645721</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="C25" t="n">
-        <v>27.43689794645721</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="D25" t="n">
-        <v>27.43689794645721</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="E25" t="n">
-        <v>27.43689794645721</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="F25" t="n">
-        <v>27.43689794645721</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="G25" t="n">
-        <v>27.43689794645721</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="H25" t="n">
-        <v>27.43689794645721</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="I25" t="n">
-        <v>6.075829024188756</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="J25" t="n">
-        <v>6.075829024188756</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="K25" t="n">
-        <v>6.075829024188756</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="L25" t="n">
         <v>10.95106657773215</v>
@@ -6162,37 +6162,37 @@
         <v>26.899481684055</v>
       </c>
       <c r="O25" t="n">
-        <v>27.43689794645721</v>
+        <v>27.4368979464572</v>
       </c>
       <c r="P25" t="n">
-        <v>27.43689794645721</v>
+        <v>27.4368979464572</v>
       </c>
       <c r="Q25" t="n">
-        <v>27.43689794645721</v>
+        <v>27.4368979464572</v>
       </c>
       <c r="R25" t="n">
-        <v>27.43689794645721</v>
+        <v>27.4368979464572</v>
       </c>
       <c r="S25" t="n">
-        <v>27.43689794645721</v>
+        <v>27.4368979464572</v>
       </c>
       <c r="T25" t="n">
-        <v>27.43689794645721</v>
+        <v>27.4368979464572</v>
       </c>
       <c r="U25" t="n">
-        <v>27.43689794645721</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="V25" t="n">
-        <v>27.43689794645721</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="W25" t="n">
-        <v>27.43689794645721</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="X25" t="n">
-        <v>27.43689794645721</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="Y25" t="n">
-        <v>27.43689794645721</v>
+        <v>6.075829024188753</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>73.64641241440916</v>
+        <v>150.3614253460853</v>
       </c>
       <c r="C26" t="n">
-        <v>73.64641241440916</v>
+        <v>150.3614253460853</v>
       </c>
       <c r="D26" t="n">
-        <v>73.64641241440916</v>
+        <v>150.3614253460853</v>
       </c>
       <c r="E26" t="n">
-        <v>73.64641241440916</v>
+        <v>82.79084195586492</v>
       </c>
       <c r="F26" t="n">
-        <v>73.64641241440916</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="G26" t="n">
-        <v>6.075829024188756</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="H26" t="n">
-        <v>6.075829024188756</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="I26" t="n">
-        <v>6.075829024188756</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="J26" t="n">
-        <v>8.518653200747963</v>
+        <v>8.518653200747792</v>
       </c>
       <c r="K26" t="n">
-        <v>32.72891329418874</v>
+        <v>32.72891329418857</v>
       </c>
       <c r="L26" t="n">
-        <v>77.70909531020689</v>
+        <v>77.70909531020672</v>
       </c>
       <c r="M26" t="n">
-        <v>140.5843367211124</v>
+        <v>140.5843367211122</v>
       </c>
       <c r="N26" t="n">
-        <v>206.3455576655148</v>
+        <v>206.3455576655147</v>
       </c>
       <c r="O26" t="n">
-        <v>263.0412330294157</v>
+        <v>263.0412330294156</v>
       </c>
       <c r="P26" t="n">
-        <v>297.4567749038203</v>
+        <v>297.4567749038202</v>
       </c>
       <c r="Q26" t="n">
-        <v>303.7914512094378</v>
+        <v>303.7914512094376</v>
       </c>
       <c r="R26" t="n">
-        <v>303.7914512094378</v>
+        <v>303.7914512094376</v>
       </c>
       <c r="S26" t="n">
-        <v>303.7914512094378</v>
+        <v>303.7914512094376</v>
       </c>
       <c r="T26" t="n">
-        <v>227.0764382777616</v>
+        <v>303.7914512094376</v>
       </c>
       <c r="U26" t="n">
-        <v>227.0764382777616</v>
+        <v>303.7914512094376</v>
       </c>
       <c r="V26" t="n">
-        <v>227.0764382777616</v>
+        <v>227.0764382777615</v>
       </c>
       <c r="W26" t="n">
-        <v>150.3614253460854</v>
+        <v>150.3614253460853</v>
       </c>
       <c r="X26" t="n">
-        <v>150.3614253460854</v>
+        <v>150.3614253460853</v>
       </c>
       <c r="Y26" t="n">
-        <v>73.64641241440916</v>
+        <v>150.3614253460853</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>73.64641241440916</v>
+        <v>227.0764382777615</v>
       </c>
       <c r="C27" t="n">
-        <v>73.64641241440916</v>
+        <v>227.0764382777615</v>
       </c>
       <c r="D27" t="n">
-        <v>73.64641241440916</v>
+        <v>150.3614253460853</v>
       </c>
       <c r="E27" t="n">
-        <v>73.64641241440916</v>
+        <v>73.64641241440913</v>
       </c>
       <c r="F27" t="n">
-        <v>6.075829024188756</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="G27" t="n">
-        <v>6.075829024188756</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="H27" t="n">
-        <v>6.075829024188756</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="I27" t="n">
-        <v>6.075829024188756</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="J27" t="n">
-        <v>6.075829024188714</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="K27" t="n">
-        <v>27.18934645194796</v>
+        <v>27.189346451948</v>
       </c>
       <c r="L27" t="n">
-        <v>74.33970537129211</v>
+        <v>74.33970537129215</v>
       </c>
       <c r="M27" t="n">
         <v>137.2014819011796</v>
       </c>
       <c r="N27" t="n">
-        <v>207.562523795637</v>
+        <v>207.5625237956369</v>
       </c>
       <c r="O27" t="n">
-        <v>262.9301139282917</v>
+        <v>262.9301139282916</v>
       </c>
       <c r="P27" t="n">
-        <v>299.5375944741905</v>
+        <v>299.5375944741904</v>
       </c>
       <c r="Q27" t="n">
-        <v>303.7914512094378</v>
+        <v>303.7914512094376</v>
       </c>
       <c r="R27" t="n">
-        <v>303.7914512094378</v>
+        <v>303.7914512094376</v>
       </c>
       <c r="S27" t="n">
-        <v>303.7914512094378</v>
+        <v>227.0764382777615</v>
       </c>
       <c r="T27" t="n">
-        <v>303.7914512094378</v>
+        <v>227.0764382777615</v>
       </c>
       <c r="U27" t="n">
-        <v>303.7914512094378</v>
+        <v>227.0764382777615</v>
       </c>
       <c r="V27" t="n">
-        <v>227.0764382777616</v>
+        <v>227.0764382777615</v>
       </c>
       <c r="W27" t="n">
-        <v>150.3614253460854</v>
+        <v>227.0764382777615</v>
       </c>
       <c r="X27" t="n">
-        <v>73.64641241440916</v>
+        <v>227.0764382777615</v>
       </c>
       <c r="Y27" t="n">
-        <v>73.64641241440916</v>
+        <v>227.0764382777615</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>27.43689794645724</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="C28" t="n">
-        <v>6.075829024188756</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="D28" t="n">
-        <v>6.075829024188756</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="E28" t="n">
-        <v>6.075829024188756</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="F28" t="n">
-        <v>6.075829024188756</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="G28" t="n">
-        <v>6.075829024188756</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="H28" t="n">
-        <v>6.075829024188756</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="I28" t="n">
-        <v>6.075829024188756</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="J28" t="n">
-        <v>6.075829024188756</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="K28" t="n">
-        <v>6.075829024188756</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="L28" t="n">
         <v>10.95106657773216</v>
@@ -6396,40 +6396,40 @@
         <v>17.41092563994131</v>
       </c>
       <c r="N28" t="n">
-        <v>26.89948168405503</v>
+        <v>26.89948168405502</v>
       </c>
       <c r="O28" t="n">
-        <v>27.43689794645724</v>
+        <v>27.43689794645723</v>
       </c>
       <c r="P28" t="n">
-        <v>27.43689794645724</v>
+        <v>27.43689794645723</v>
       </c>
       <c r="Q28" t="n">
-        <v>27.43689794645724</v>
+        <v>27.43689794645723</v>
       </c>
       <c r="R28" t="n">
-        <v>27.43689794645724</v>
+        <v>27.43689794645723</v>
       </c>
       <c r="S28" t="n">
-        <v>27.43689794645724</v>
+        <v>27.43689794645723</v>
       </c>
       <c r="T28" t="n">
-        <v>27.43689794645724</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="U28" t="n">
-        <v>27.43689794645724</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="V28" t="n">
-        <v>27.43689794645724</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="W28" t="n">
-        <v>27.43689794645724</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="X28" t="n">
-        <v>27.43689794645724</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="Y28" t="n">
-        <v>27.43689794645724</v>
+        <v>6.075829024188753</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>159.5058548875411</v>
+        <v>73.64641241440914</v>
       </c>
       <c r="C29" t="n">
-        <v>159.5058548875411</v>
+        <v>73.64641241440914</v>
       </c>
       <c r="D29" t="n">
-        <v>159.5058548875411</v>
+        <v>73.64641241440914</v>
       </c>
       <c r="E29" t="n">
-        <v>82.79084195586491</v>
+        <v>73.64641241440914</v>
       </c>
       <c r="F29" t="n">
         <v>6.075829024188752</v>
@@ -6463,7 +6463,7 @@
         <v>6.075829024188752</v>
       </c>
       <c r="J29" t="n">
-        <v>8.518653200747838</v>
+        <v>8.518653200747792</v>
       </c>
       <c r="K29" t="n">
         <v>32.72891329418857</v>
@@ -6490,25 +6490,25 @@
         <v>303.7914512094376</v>
       </c>
       <c r="S29" t="n">
-        <v>236.2208678192172</v>
+        <v>227.0764382777614</v>
       </c>
       <c r="T29" t="n">
-        <v>159.5058548875411</v>
+        <v>150.3614253460853</v>
       </c>
       <c r="U29" t="n">
-        <v>159.5058548875411</v>
+        <v>150.3614253460853</v>
       </c>
       <c r="V29" t="n">
-        <v>159.5058548875411</v>
+        <v>73.64641241440914</v>
       </c>
       <c r="W29" t="n">
-        <v>159.5058548875411</v>
+        <v>73.64641241440914</v>
       </c>
       <c r="X29" t="n">
-        <v>159.5058548875411</v>
+        <v>73.64641241440914</v>
       </c>
       <c r="Y29" t="n">
-        <v>159.5058548875411</v>
+        <v>73.64641241440914</v>
       </c>
     </row>
     <row r="30">
@@ -6518,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
+        <v>227.0764382777614</v>
+      </c>
+      <c r="C30" t="n">
+        <v>227.0764382777614</v>
+      </c>
+      <c r="D30" t="n">
+        <v>150.3614253460853</v>
+      </c>
+      <c r="E30" t="n">
         <v>82.79084195586491</v>
-      </c>
-      <c r="C30" t="n">
-        <v>6.075829024188752</v>
-      </c>
-      <c r="D30" t="n">
-        <v>6.075829024188752</v>
-      </c>
-      <c r="E30" t="n">
-        <v>6.075829024188752</v>
       </c>
       <c r="F30" t="n">
         <v>6.075829024188752</v>
@@ -6554,40 +6554,40 @@
         <v>137.2014819011796</v>
       </c>
       <c r="N30" t="n">
-        <v>207.562523795637</v>
+        <v>207.5625237956368</v>
       </c>
       <c r="O30" t="n">
-        <v>262.9301139282917</v>
+        <v>262.9301139282915</v>
       </c>
       <c r="P30" t="n">
-        <v>299.5375944741905</v>
+        <v>299.5375944741904</v>
       </c>
       <c r="Q30" t="n">
-        <v>303.7914512094378</v>
+        <v>303.7914512094376</v>
       </c>
       <c r="R30" t="n">
-        <v>303.7914512094378</v>
+        <v>303.7914512094376</v>
       </c>
       <c r="S30" t="n">
-        <v>303.7914512094378</v>
+        <v>227.0764382777614</v>
       </c>
       <c r="T30" t="n">
-        <v>303.7914512094378</v>
+        <v>227.0764382777614</v>
       </c>
       <c r="U30" t="n">
-        <v>303.7914512094378</v>
+        <v>227.0764382777614</v>
       </c>
       <c r="V30" t="n">
-        <v>303.7914512094378</v>
+        <v>227.0764382777614</v>
       </c>
       <c r="W30" t="n">
-        <v>227.0764382777616</v>
+        <v>227.0764382777614</v>
       </c>
       <c r="X30" t="n">
-        <v>227.0764382777616</v>
+        <v>227.0764382777614</v>
       </c>
       <c r="Y30" t="n">
-        <v>159.5058548875411</v>
+        <v>227.0764382777614</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>282.4303822871692</v>
+        <v>27.43689794645723</v>
       </c>
       <c r="C31" t="n">
-        <v>282.4303822871692</v>
+        <v>27.43689794645723</v>
       </c>
       <c r="D31" t="n">
-        <v>282.4303822871692</v>
+        <v>27.43689794645723</v>
       </c>
       <c r="E31" t="n">
-        <v>282.4303822871692</v>
+        <v>6.075829024188752</v>
       </c>
       <c r="F31" t="n">
-        <v>282.4303822871692</v>
+        <v>6.075829024188752</v>
       </c>
       <c r="G31" t="n">
-        <v>282.4303822871692</v>
+        <v>6.075829024188752</v>
       </c>
       <c r="H31" t="n">
-        <v>282.4303822871692</v>
+        <v>6.075829024188752</v>
       </c>
       <c r="I31" t="n">
-        <v>282.4303822871692</v>
+        <v>6.075829024188752</v>
       </c>
       <c r="J31" t="n">
-        <v>282.4303822871692</v>
+        <v>6.075829024188752</v>
       </c>
       <c r="K31" t="n">
-        <v>282.4303822871692</v>
+        <v>6.075829024188752</v>
       </c>
       <c r="L31" t="n">
-        <v>287.3056198407126</v>
+        <v>10.95106657773216</v>
       </c>
       <c r="M31" t="n">
-        <v>293.7654789029217</v>
+        <v>17.41092563994131</v>
       </c>
       <c r="N31" t="n">
-        <v>303.2540349470354</v>
+        <v>26.89948168405502</v>
       </c>
       <c r="O31" t="n">
-        <v>303.7914512094376</v>
+        <v>27.43689794645723</v>
       </c>
       <c r="P31" t="n">
-        <v>303.7914512094376</v>
+        <v>27.43689794645723</v>
       </c>
       <c r="Q31" t="n">
-        <v>303.7914512094376</v>
+        <v>27.43689794645723</v>
       </c>
       <c r="R31" t="n">
-        <v>303.7914512094376</v>
+        <v>27.43689794645723</v>
       </c>
       <c r="S31" t="n">
-        <v>303.7914512094376</v>
+        <v>27.43689794645723</v>
       </c>
       <c r="T31" t="n">
-        <v>303.7914512094376</v>
+        <v>27.43689794645723</v>
       </c>
       <c r="U31" t="n">
-        <v>303.7914512094376</v>
+        <v>27.43689794645723</v>
       </c>
       <c r="V31" t="n">
-        <v>303.7914512094376</v>
+        <v>27.43689794645723</v>
       </c>
       <c r="W31" t="n">
-        <v>282.4303822871692</v>
+        <v>27.43689794645723</v>
       </c>
       <c r="X31" t="n">
-        <v>282.4303822871692</v>
+        <v>27.43689794645723</v>
       </c>
       <c r="Y31" t="n">
-        <v>282.4303822871692</v>
+        <v>27.43689794645723</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>195.5430077709444</v>
+        <v>159.5058548875411</v>
       </c>
       <c r="C32" t="n">
-        <v>195.5430077709444</v>
+        <v>82.79084195586491</v>
       </c>
       <c r="D32" t="n">
-        <v>195.5430077709444</v>
+        <v>82.79084195586491</v>
       </c>
       <c r="E32" t="n">
-        <v>118.8279948392682</v>
+        <v>82.79084195586491</v>
       </c>
       <c r="F32" t="n">
-        <v>82.79084195586492</v>
+        <v>82.79084195586491</v>
       </c>
       <c r="G32" t="n">
-        <v>6.075829024188753</v>
+        <v>6.075829024188752</v>
       </c>
       <c r="H32" t="n">
-        <v>6.075829024188753</v>
+        <v>6.075829024188752</v>
       </c>
       <c r="I32" t="n">
-        <v>6.075829024188753</v>
+        <v>6.075829024188752</v>
       </c>
       <c r="J32" t="n">
-        <v>8.518653200747842</v>
+        <v>8.518653200747849</v>
       </c>
       <c r="K32" t="n">
-        <v>32.72891329418858</v>
+        <v>32.72891329418859</v>
       </c>
       <c r="L32" t="n">
-        <v>77.70909531020676</v>
+        <v>77.70909531020671</v>
       </c>
       <c r="M32" t="n">
-        <v>140.5843367211123</v>
+        <v>140.5843367211122</v>
       </c>
       <c r="N32" t="n">
-        <v>206.3455576655147</v>
+        <v>206.3455576655146</v>
       </c>
       <c r="O32" t="n">
-        <v>263.0412330294156</v>
+        <v>263.0412330294155</v>
       </c>
       <c r="P32" t="n">
-        <v>297.4567749038202</v>
+        <v>297.4567749038201</v>
       </c>
       <c r="Q32" t="n">
         <v>303.7914512094376</v>
       </c>
       <c r="R32" t="n">
-        <v>272.2580207026206</v>
+        <v>272.2580207026205</v>
       </c>
       <c r="S32" t="n">
-        <v>272.2580207026206</v>
+        <v>272.2580207026205</v>
       </c>
       <c r="T32" t="n">
-        <v>195.5430077709444</v>
+        <v>272.2580207026205</v>
       </c>
       <c r="U32" t="n">
-        <v>195.5430077709444</v>
+        <v>272.2580207026205</v>
       </c>
       <c r="V32" t="n">
         <v>195.5430077709444</v>
       </c>
       <c r="W32" t="n">
-        <v>195.5430077709444</v>
+        <v>159.5058548875411</v>
       </c>
       <c r="X32" t="n">
-        <v>195.5430077709444</v>
+        <v>159.5058548875411</v>
       </c>
       <c r="Y32" t="n">
-        <v>195.5430077709444</v>
+        <v>159.5058548875411</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>12.36732853754904</v>
+        <v>227.0764382777616</v>
       </c>
       <c r="C33" t="n">
-        <v>12.36732853754904</v>
+        <v>227.0764382777616</v>
       </c>
       <c r="D33" t="n">
-        <v>12.36732853754904</v>
+        <v>150.3614253460855</v>
       </c>
       <c r="E33" t="n">
-        <v>12.36732853754904</v>
+        <v>150.3614253460855</v>
       </c>
       <c r="F33" t="n">
-        <v>12.36732853754904</v>
+        <v>73.64641241440931</v>
       </c>
       <c r="G33" t="n">
-        <v>12.36732853754904</v>
+        <v>6.075829024188752</v>
       </c>
       <c r="H33" t="n">
-        <v>12.36732853754904</v>
+        <v>6.075829024188752</v>
       </c>
       <c r="I33" t="n">
-        <v>12.36732853754904</v>
+        <v>6.075829024188752</v>
       </c>
       <c r="J33" t="n">
-        <v>6.075829024188753</v>
+        <v>6.075829024188752</v>
       </c>
       <c r="K33" t="n">
-        <v>27.18934645194785</v>
+        <v>27.189346451948</v>
       </c>
       <c r="L33" t="n">
-        <v>74.339705371292</v>
+        <v>74.33970537129215</v>
       </c>
       <c r="M33" t="n">
-        <v>137.2014819011795</v>
+        <v>137.2014819011796</v>
       </c>
       <c r="N33" t="n">
-        <v>207.5625237956369</v>
+        <v>207.562523795637</v>
       </c>
       <c r="O33" t="n">
-        <v>262.9301139282916</v>
+        <v>262.9301139282917</v>
       </c>
       <c r="P33" t="n">
-        <v>299.5375944741904</v>
+        <v>299.5375944741905</v>
       </c>
       <c r="Q33" t="n">
-        <v>303.7914512094376</v>
+        <v>303.7914512094378</v>
       </c>
       <c r="R33" t="n">
-        <v>303.7914512094376</v>
+        <v>303.7914512094378</v>
       </c>
       <c r="S33" t="n">
-        <v>303.7914512094376</v>
+        <v>303.7914512094378</v>
       </c>
       <c r="T33" t="n">
-        <v>242.5123673325776</v>
+        <v>303.7914512094378</v>
       </c>
       <c r="U33" t="n">
-        <v>165.7973544009014</v>
+        <v>303.7914512094378</v>
       </c>
       <c r="V33" t="n">
-        <v>89.08234146922521</v>
+        <v>227.0764382777616</v>
       </c>
       <c r="W33" t="n">
-        <v>89.08234146922521</v>
+        <v>227.0764382777616</v>
       </c>
       <c r="X33" t="n">
-        <v>12.36732853754904</v>
+        <v>227.0764382777616</v>
       </c>
       <c r="Y33" t="n">
-        <v>12.36732853754904</v>
+        <v>227.0764382777616</v>
       </c>
     </row>
     <row r="34">
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>27.43689794645723</v>
+        <v>6.075829024188752</v>
       </c>
       <c r="C34" t="n">
-        <v>27.43689794645723</v>
+        <v>6.075829024188752</v>
       </c>
       <c r="D34" t="n">
-        <v>27.43689794645723</v>
+        <v>6.075829024188752</v>
       </c>
       <c r="E34" t="n">
-        <v>27.43689794645723</v>
+        <v>6.075829024188752</v>
       </c>
       <c r="F34" t="n">
-        <v>27.43689794645723</v>
+        <v>6.075829024188752</v>
       </c>
       <c r="G34" t="n">
-        <v>27.43689794645723</v>
+        <v>6.075829024188752</v>
       </c>
       <c r="H34" t="n">
-        <v>27.43689794645723</v>
+        <v>6.075829024188752</v>
       </c>
       <c r="I34" t="n">
-        <v>6.075829024188753</v>
+        <v>6.075829024188752</v>
       </c>
       <c r="J34" t="n">
-        <v>6.075829024188753</v>
+        <v>6.075829024188752</v>
       </c>
       <c r="K34" t="n">
-        <v>6.075829024188753</v>
+        <v>6.075829024188752</v>
       </c>
       <c r="L34" t="n">
         <v>10.95106657773216</v>
@@ -6885,25 +6885,25 @@
         <v>27.43689794645723</v>
       </c>
       <c r="S34" t="n">
-        <v>27.43689794645723</v>
+        <v>6.075829024188752</v>
       </c>
       <c r="T34" t="n">
-        <v>27.43689794645723</v>
+        <v>6.075829024188752</v>
       </c>
       <c r="U34" t="n">
-        <v>27.43689794645723</v>
+        <v>6.075829024188752</v>
       </c>
       <c r="V34" t="n">
-        <v>27.43689794645723</v>
+        <v>6.075829024188752</v>
       </c>
       <c r="W34" t="n">
-        <v>27.43689794645723</v>
+        <v>6.075829024188752</v>
       </c>
       <c r="X34" t="n">
-        <v>27.43689794645723</v>
+        <v>6.075829024188752</v>
       </c>
       <c r="Y34" t="n">
-        <v>27.43689794645723</v>
+        <v>6.075829024188752</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6.075829024188752</v>
+        <v>82.79084195586491</v>
       </c>
       <c r="C35" t="n">
-        <v>6.075829024188752</v>
+        <v>82.79084195586491</v>
       </c>
       <c r="D35" t="n">
-        <v>6.075829024188752</v>
+        <v>82.79084195586491</v>
       </c>
       <c r="E35" t="n">
-        <v>6.075829024188752</v>
+        <v>82.79084195586491</v>
       </c>
       <c r="F35" t="n">
-        <v>6.075829024188752</v>
+        <v>82.79084195586491</v>
       </c>
       <c r="G35" t="n">
-        <v>6.075829024188752</v>
+        <v>82.79084195586491</v>
       </c>
       <c r="H35" t="n">
         <v>6.075829024188752</v>
@@ -6937,10 +6937,10 @@
         <v>6.075829024188752</v>
       </c>
       <c r="J35" t="n">
-        <v>8.518653200747863</v>
+        <v>8.518653200747792</v>
       </c>
       <c r="K35" t="n">
-        <v>32.7289132941886</v>
+        <v>32.72891329418857</v>
       </c>
       <c r="L35" t="n">
         <v>77.70909531020672</v>
@@ -6961,25 +6961,25 @@
         <v>303.7914512094376</v>
       </c>
       <c r="R35" t="n">
-        <v>303.7914512094376</v>
+        <v>272.2580207026205</v>
       </c>
       <c r="S35" t="n">
-        <v>227.0764382777614</v>
+        <v>272.2580207026205</v>
       </c>
       <c r="T35" t="n">
-        <v>159.5058548875411</v>
+        <v>236.2208678192172</v>
       </c>
       <c r="U35" t="n">
         <v>159.5058548875411</v>
       </c>
       <c r="V35" t="n">
-        <v>159.5058548875411</v>
+        <v>82.79084195586491</v>
       </c>
       <c r="W35" t="n">
-        <v>159.5058548875411</v>
+        <v>82.79084195586491</v>
       </c>
       <c r="X35" t="n">
-        <v>159.5058548875411</v>
+        <v>82.79084195586491</v>
       </c>
       <c r="Y35" t="n">
         <v>82.79084195586491</v>
@@ -6995,22 +6995,22 @@
         <v>227.0764382777614</v>
       </c>
       <c r="C36" t="n">
-        <v>150.3614253460853</v>
+        <v>227.0764382777614</v>
       </c>
       <c r="D36" t="n">
-        <v>73.64641241440914</v>
+        <v>159.5058548875411</v>
       </c>
       <c r="E36" t="n">
-        <v>73.64641241440914</v>
+        <v>159.5058548875411</v>
       </c>
       <c r="F36" t="n">
-        <v>73.64641241440914</v>
+        <v>82.79084195586491</v>
       </c>
       <c r="G36" t="n">
-        <v>73.64641241440914</v>
+        <v>6.075829024188752</v>
       </c>
       <c r="H36" t="n">
-        <v>30.17314857586256</v>
+        <v>6.075829024188752</v>
       </c>
       <c r="I36" t="n">
         <v>6.075829024188752</v>
@@ -7034,10 +7034,10 @@
         <v>262.9301139282917</v>
       </c>
       <c r="P36" t="n">
-        <v>299.5375944741904</v>
+        <v>299.5375944741905</v>
       </c>
       <c r="Q36" t="n">
-        <v>303.7914512094376</v>
+        <v>303.7914512094378</v>
       </c>
       <c r="R36" t="n">
         <v>303.7914512094376</v>
@@ -7049,16 +7049,16 @@
         <v>303.7914512094376</v>
       </c>
       <c r="U36" t="n">
-        <v>303.7914512094376</v>
+        <v>227.0764382777614</v>
       </c>
       <c r="V36" t="n">
-        <v>303.7914512094376</v>
+        <v>227.0764382777614</v>
       </c>
       <c r="W36" t="n">
-        <v>303.7914512094376</v>
+        <v>227.0764382777614</v>
       </c>
       <c r="X36" t="n">
-        <v>303.7914512094376</v>
+        <v>227.0764382777614</v>
       </c>
       <c r="Y36" t="n">
         <v>227.0764382777614</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>282.4303822871692</v>
+        <v>6.075829024188752</v>
       </c>
       <c r="C37" t="n">
-        <v>282.4303822871692</v>
+        <v>6.075829024188752</v>
       </c>
       <c r="D37" t="n">
-        <v>282.4303822871692</v>
+        <v>6.075829024188752</v>
       </c>
       <c r="E37" t="n">
-        <v>282.4303822871692</v>
+        <v>6.075829024188752</v>
       </c>
       <c r="F37" t="n">
-        <v>282.4303822871692</v>
+        <v>6.075829024188752</v>
       </c>
       <c r="G37" t="n">
-        <v>282.4303822871692</v>
+        <v>6.075829024188752</v>
       </c>
       <c r="H37" t="n">
-        <v>282.4303822871692</v>
+        <v>6.075829024188752</v>
       </c>
       <c r="I37" t="n">
-        <v>282.4303822871692</v>
+        <v>6.075829024188752</v>
       </c>
       <c r="J37" t="n">
-        <v>282.4303822871692</v>
+        <v>6.075829024188752</v>
       </c>
       <c r="K37" t="n">
-        <v>282.4303822871692</v>
+        <v>6.075829024188752</v>
       </c>
       <c r="L37" t="n">
-        <v>287.3056198407126</v>
+        <v>10.95106657773216</v>
       </c>
       <c r="M37" t="n">
-        <v>293.7654789029217</v>
+        <v>17.41092563994131</v>
       </c>
       <c r="N37" t="n">
-        <v>303.2540349470354</v>
+        <v>26.89948168405502</v>
       </c>
       <c r="O37" t="n">
-        <v>303.7914512094376</v>
+        <v>27.43689794645723</v>
       </c>
       <c r="P37" t="n">
-        <v>303.7914512094376</v>
+        <v>27.43689794645723</v>
       </c>
       <c r="Q37" t="n">
-        <v>303.7914512094376</v>
+        <v>27.43689794645723</v>
       </c>
       <c r="R37" t="n">
-        <v>303.7914512094376</v>
+        <v>27.43689794645723</v>
       </c>
       <c r="S37" t="n">
-        <v>303.7914512094376</v>
+        <v>27.43689794645723</v>
       </c>
       <c r="T37" t="n">
-        <v>303.7914512094376</v>
+        <v>27.43689794645723</v>
       </c>
       <c r="U37" t="n">
-        <v>303.7914512094376</v>
+        <v>6.075829024188752</v>
       </c>
       <c r="V37" t="n">
-        <v>303.7914512094376</v>
+        <v>6.075829024188752</v>
       </c>
       <c r="W37" t="n">
-        <v>303.7914512094376</v>
+        <v>6.075829024188752</v>
       </c>
       <c r="X37" t="n">
-        <v>303.7914512094376</v>
+        <v>6.075829024188752</v>
       </c>
       <c r="Y37" t="n">
-        <v>303.7914512094376</v>
+        <v>6.075829024188752</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>73.64641241440914</v>
+        <v>118.8279948392682</v>
       </c>
       <c r="C38" t="n">
-        <v>73.64641241440914</v>
+        <v>118.8279948392682</v>
       </c>
       <c r="D38" t="n">
-        <v>73.64641241440914</v>
+        <v>118.8279948392682</v>
       </c>
       <c r="E38" t="n">
-        <v>73.64641241440914</v>
+        <v>42.11298190759206</v>
       </c>
       <c r="F38" t="n">
         <v>6.075829024188752</v>
@@ -7174,22 +7174,22 @@
         <v>6.075829024188752</v>
       </c>
       <c r="J38" t="n">
-        <v>8.518653200747679</v>
+        <v>8.518653200747849</v>
       </c>
       <c r="K38" t="n">
-        <v>32.72891329418843</v>
+        <v>32.72891329418859</v>
       </c>
       <c r="L38" t="n">
-        <v>77.70909531020658</v>
+        <v>77.70909531020671</v>
       </c>
       <c r="M38" t="n">
-        <v>140.5843367211121</v>
+        <v>140.5843367211122</v>
       </c>
       <c r="N38" t="n">
-        <v>206.3455576655144</v>
+        <v>206.3455576655146</v>
       </c>
       <c r="O38" t="n">
-        <v>263.0412330294154</v>
+        <v>263.0412330294155</v>
       </c>
       <c r="P38" t="n">
         <v>297.4567749038201</v>
@@ -7198,28 +7198,28 @@
         <v>303.7914512094376</v>
       </c>
       <c r="R38" t="n">
-        <v>303.7914512094376</v>
+        <v>272.2580207026205</v>
       </c>
       <c r="S38" t="n">
-        <v>227.0764382777614</v>
+        <v>195.5430077709444</v>
       </c>
       <c r="T38" t="n">
-        <v>227.0764382777614</v>
+        <v>118.8279948392682</v>
       </c>
       <c r="U38" t="n">
-        <v>150.3614253460853</v>
+        <v>118.8279948392682</v>
       </c>
       <c r="V38" t="n">
-        <v>73.64641241440914</v>
+        <v>118.8279948392682</v>
       </c>
       <c r="W38" t="n">
-        <v>73.64641241440914</v>
+        <v>118.8279948392682</v>
       </c>
       <c r="X38" t="n">
-        <v>73.64641241440914</v>
+        <v>118.8279948392682</v>
       </c>
       <c r="Y38" t="n">
-        <v>73.64641241440914</v>
+        <v>118.8279948392682</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>227.0764382777616</v>
+        <v>73.64641241440931</v>
       </c>
       <c r="C39" t="n">
-        <v>227.0764382777616</v>
+        <v>73.64641241440931</v>
       </c>
       <c r="D39" t="n">
-        <v>227.0764382777616</v>
+        <v>73.64641241440931</v>
       </c>
       <c r="E39" t="n">
-        <v>150.3614253460855</v>
+        <v>73.64641241440931</v>
       </c>
       <c r="F39" t="n">
-        <v>82.79084195586491</v>
+        <v>73.64641241440931</v>
       </c>
       <c r="G39" t="n">
         <v>6.075829024188752</v>
@@ -7280,25 +7280,25 @@
         <v>303.7914512094378</v>
       </c>
       <c r="S39" t="n">
-        <v>303.7914512094378</v>
+        <v>227.0764382777616</v>
       </c>
       <c r="T39" t="n">
-        <v>303.7914512094378</v>
+        <v>150.3614253460855</v>
       </c>
       <c r="U39" t="n">
-        <v>303.7914512094378</v>
+        <v>150.3614253460855</v>
       </c>
       <c r="V39" t="n">
-        <v>227.0764382777616</v>
+        <v>150.3614253460855</v>
       </c>
       <c r="W39" t="n">
-        <v>227.0764382777616</v>
+        <v>73.64641241440931</v>
       </c>
       <c r="X39" t="n">
-        <v>227.0764382777616</v>
+        <v>73.64641241440931</v>
       </c>
       <c r="Y39" t="n">
-        <v>227.0764382777616</v>
+        <v>73.64641241440931</v>
       </c>
     </row>
     <row r="40">
@@ -7320,19 +7320,19 @@
         <v>27.43689794645723</v>
       </c>
       <c r="F40" t="n">
-        <v>27.43689794645723</v>
+        <v>6.075829024188752</v>
       </c>
       <c r="G40" t="n">
-        <v>27.43689794645723</v>
+        <v>6.075829024188752</v>
       </c>
       <c r="H40" t="n">
-        <v>27.43689794645723</v>
+        <v>6.075829024188752</v>
       </c>
       <c r="I40" t="n">
-        <v>27.43689794645723</v>
+        <v>6.075829024188752</v>
       </c>
       <c r="J40" t="n">
-        <v>11.84577398083681</v>
+        <v>6.075829024188752</v>
       </c>
       <c r="K40" t="n">
         <v>6.075829024188752</v>
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>272.2580207026205</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="C41" t="n">
-        <v>195.5430077709444</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="D41" t="n">
-        <v>195.5430077709444</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="E41" t="n">
-        <v>118.8279948392682</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="F41" t="n">
-        <v>42.11298190759206</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="G41" t="n">
-        <v>6.075829024188752</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="H41" t="n">
-        <v>6.075829024188752</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="I41" t="n">
-        <v>6.075829024188752</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="J41" t="n">
-        <v>8.518653200747821</v>
+        <v>8.518653200747838</v>
       </c>
       <c r="K41" t="n">
-        <v>32.7289132941886</v>
+        <v>32.72891329418857</v>
       </c>
       <c r="L41" t="n">
-        <v>77.70909531020675</v>
+        <v>77.70909531020672</v>
       </c>
       <c r="M41" t="n">
         <v>140.5843367211122</v>
       </c>
       <c r="N41" t="n">
-        <v>206.3455576655146</v>
+        <v>206.3455576655147</v>
       </c>
       <c r="O41" t="n">
-        <v>263.0412330294155</v>
+        <v>263.0412330294156</v>
       </c>
       <c r="P41" t="n">
-        <v>297.4567749038201</v>
+        <v>297.4567749038202</v>
       </c>
       <c r="Q41" t="n">
         <v>303.7914512094376</v>
       </c>
       <c r="R41" t="n">
-        <v>272.2580207026205</v>
+        <v>272.2580207026206</v>
       </c>
       <c r="S41" t="n">
-        <v>272.2580207026205</v>
+        <v>195.5430077709444</v>
       </c>
       <c r="T41" t="n">
-        <v>272.2580207026205</v>
+        <v>118.8279948392682</v>
       </c>
       <c r="U41" t="n">
-        <v>272.2580207026205</v>
+        <v>82.79084195586492</v>
       </c>
       <c r="V41" t="n">
-        <v>272.2580207026205</v>
+        <v>82.79084195586492</v>
       </c>
       <c r="W41" t="n">
-        <v>272.2580207026205</v>
+        <v>82.79084195586492</v>
       </c>
       <c r="X41" t="n">
-        <v>272.2580207026205</v>
+        <v>82.79084195586492</v>
       </c>
       <c r="Y41" t="n">
-        <v>272.2580207026205</v>
+        <v>6.075829024188753</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>73.64641241440914</v>
+        <v>148.8770011941575</v>
       </c>
       <c r="C42" t="n">
-        <v>6.075829024188752</v>
+        <v>148.8770011941575</v>
       </c>
       <c r="D42" t="n">
-        <v>6.075829024188752</v>
+        <v>148.8770011941575</v>
       </c>
       <c r="E42" t="n">
-        <v>6.075829024188752</v>
+        <v>148.8770011941575</v>
       </c>
       <c r="F42" t="n">
-        <v>6.075829024188752</v>
+        <v>148.8770011941575</v>
       </c>
       <c r="G42" t="n">
-        <v>6.075829024188752</v>
+        <v>72.1619882624813</v>
       </c>
       <c r="H42" t="n">
-        <v>6.075829024188752</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="I42" t="n">
-        <v>6.075829024188752</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="J42" t="n">
-        <v>6.075829024188752</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="K42" t="n">
-        <v>27.18934645194779</v>
+        <v>27.189346451948</v>
       </c>
       <c r="L42" t="n">
-        <v>74.33970537129194</v>
+        <v>74.33970537129215</v>
       </c>
       <c r="M42" t="n">
-        <v>137.2014819011794</v>
+        <v>137.2014819011796</v>
       </c>
       <c r="N42" t="n">
-        <v>207.5625237956368</v>
+        <v>207.562523795637</v>
       </c>
       <c r="O42" t="n">
-        <v>262.9301139282915</v>
+        <v>262.9301139282917</v>
       </c>
       <c r="P42" t="n">
-        <v>299.5375944741904</v>
+        <v>299.5375944741905</v>
       </c>
       <c r="Q42" t="n">
         <v>303.7914512094376</v>
       </c>
       <c r="R42" t="n">
-        <v>303.7914512094376</v>
+        <v>274.1598120887027</v>
       </c>
       <c r="S42" t="n">
-        <v>303.7914512094376</v>
+        <v>197.4447991570265</v>
       </c>
       <c r="T42" t="n">
-        <v>227.0764382777614</v>
+        <v>197.4447991570265</v>
       </c>
       <c r="U42" t="n">
-        <v>150.3614253460853</v>
+        <v>197.4447991570265</v>
       </c>
       <c r="V42" t="n">
-        <v>150.3614253460853</v>
+        <v>197.4447991570265</v>
       </c>
       <c r="W42" t="n">
-        <v>150.3614253460853</v>
+        <v>197.4447991570265</v>
       </c>
       <c r="X42" t="n">
-        <v>73.64641241440914</v>
+        <v>197.4447991570265</v>
       </c>
       <c r="Y42" t="n">
-        <v>73.64641241440914</v>
+        <v>197.4447991570265</v>
       </c>
     </row>
     <row r="43">
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>6.075829024188752</v>
+        <v>27.43689794645723</v>
       </c>
       <c r="C43" t="n">
-        <v>6.075829024188752</v>
+        <v>27.43689794645723</v>
       </c>
       <c r="D43" t="n">
-        <v>6.075829024188752</v>
+        <v>27.43689794645723</v>
       </c>
       <c r="E43" t="n">
-        <v>6.075829024188752</v>
+        <v>27.43689794645723</v>
       </c>
       <c r="F43" t="n">
-        <v>6.075829024188752</v>
+        <v>27.43689794645723</v>
       </c>
       <c r="G43" t="n">
-        <v>6.075829024188752</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="H43" t="n">
-        <v>6.075829024188752</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="I43" t="n">
-        <v>6.075829024188752</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="J43" t="n">
-        <v>6.075829024188752</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="K43" t="n">
-        <v>6.075829024188752</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="L43" t="n">
         <v>10.95106657773216</v>
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>159.505854887541</v>
+        <v>150.3614253460853</v>
       </c>
       <c r="C44" t="n">
-        <v>159.505854887541</v>
+        <v>82.79084195586492</v>
       </c>
       <c r="D44" t="n">
-        <v>159.505854887541</v>
+        <v>82.79084195586492</v>
       </c>
       <c r="E44" t="n">
-        <v>82.79084195586488</v>
+        <v>82.79084195586492</v>
       </c>
       <c r="F44" t="n">
-        <v>82.79084195586488</v>
+        <v>82.79084195586492</v>
       </c>
       <c r="G44" t="n">
-        <v>6.075829024188749</v>
+        <v>82.79084195586492</v>
       </c>
       <c r="H44" t="n">
-        <v>6.075829024188749</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="I44" t="n">
-        <v>6.075829024188749</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="J44" t="n">
-        <v>8.518653200747735</v>
+        <v>8.518653200747838</v>
       </c>
       <c r="K44" t="n">
-        <v>32.72891329418849</v>
+        <v>32.72891329418857</v>
       </c>
       <c r="L44" t="n">
-        <v>77.70909531020664</v>
+        <v>77.70909531020672</v>
       </c>
       <c r="M44" t="n">
         <v>140.5843367211122</v>
       </c>
       <c r="N44" t="n">
-        <v>206.3455576655145</v>
+        <v>206.3455576655147</v>
       </c>
       <c r="O44" t="n">
-        <v>263.0412330294154</v>
+        <v>263.0412330294156</v>
       </c>
       <c r="P44" t="n">
-        <v>297.45677490382</v>
+        <v>297.4567749038202</v>
       </c>
       <c r="Q44" t="n">
-        <v>303.7914512094375</v>
+        <v>303.7914512094376</v>
       </c>
       <c r="R44" t="n">
-        <v>303.7914512094375</v>
+        <v>303.7914512094376</v>
       </c>
       <c r="S44" t="n">
-        <v>303.7914512094375</v>
+        <v>303.7914512094376</v>
       </c>
       <c r="T44" t="n">
-        <v>303.7914512094375</v>
+        <v>227.0764382777615</v>
       </c>
       <c r="U44" t="n">
-        <v>303.7914512094375</v>
+        <v>150.3614253460853</v>
       </c>
       <c r="V44" t="n">
-        <v>303.7914512094375</v>
+        <v>150.3614253460853</v>
       </c>
       <c r="W44" t="n">
-        <v>303.7914512094375</v>
+        <v>150.3614253460853</v>
       </c>
       <c r="X44" t="n">
-        <v>236.2208678192171</v>
+        <v>150.3614253460853</v>
       </c>
       <c r="Y44" t="n">
-        <v>159.505854887541</v>
+        <v>150.3614253460853</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>106.8881615075387</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="C45" t="n">
-        <v>106.8881615075387</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="D45" t="n">
-        <v>30.17314857586256</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="E45" t="n">
-        <v>30.17314857586256</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="F45" t="n">
-        <v>30.17314857586256</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="G45" t="n">
-        <v>30.17314857586256</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="H45" t="n">
-        <v>30.17314857586256</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="I45" t="n">
-        <v>6.075829024188749</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="J45" t="n">
-        <v>6.07582902418843</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="K45" t="n">
-        <v>27.18934645194768</v>
+        <v>27.189346451948</v>
       </c>
       <c r="L45" t="n">
-        <v>74.33970537129183</v>
+        <v>74.33970537129215</v>
       </c>
       <c r="M45" t="n">
-        <v>137.2014819011793</v>
+        <v>137.2014819011796</v>
       </c>
       <c r="N45" t="n">
-        <v>207.5625237956367</v>
+        <v>207.562523795637</v>
       </c>
       <c r="O45" t="n">
-        <v>262.9301139282914</v>
+        <v>262.9301139282917</v>
       </c>
       <c r="P45" t="n">
-        <v>299.5375944741903</v>
+        <v>299.5375944741905</v>
       </c>
       <c r="Q45" t="n">
-        <v>303.7914512094375</v>
+        <v>303.7914512094378</v>
       </c>
       <c r="R45" t="n">
-        <v>303.7914512094375</v>
+        <v>303.7914512094378</v>
       </c>
       <c r="S45" t="n">
-        <v>303.7914512094375</v>
+        <v>303.7914512094378</v>
       </c>
       <c r="T45" t="n">
-        <v>303.7914512094375</v>
+        <v>303.7914512094378</v>
       </c>
       <c r="U45" t="n">
-        <v>227.0764382777613</v>
+        <v>227.0764382777616</v>
       </c>
       <c r="V45" t="n">
-        <v>150.3614253460852</v>
+        <v>227.0764382777616</v>
       </c>
       <c r="W45" t="n">
-        <v>106.8881615075387</v>
+        <v>150.3614253460854</v>
       </c>
       <c r="X45" t="n">
-        <v>106.8881615075387</v>
+        <v>82.79084195586492</v>
       </c>
       <c r="Y45" t="n">
-        <v>106.8881615075387</v>
+        <v>6.075829024188753</v>
       </c>
     </row>
     <row r="46">
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>6.075829024188749</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="C46" t="n">
-        <v>6.075829024188749</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="D46" t="n">
-        <v>6.075829024188749</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="E46" t="n">
-        <v>6.075829024188749</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="F46" t="n">
-        <v>6.075829024188749</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="G46" t="n">
-        <v>6.075829024188749</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="H46" t="n">
-        <v>6.075829024188749</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="I46" t="n">
-        <v>6.075829024188749</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="J46" t="n">
-        <v>6.075829024188749</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="K46" t="n">
-        <v>6.075829024188749</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="L46" t="n">
         <v>10.95106657773216</v>
@@ -7833,25 +7833,25 @@
         <v>27.43689794645723</v>
       </c>
       <c r="S46" t="n">
-        <v>27.43689794645723</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="T46" t="n">
-        <v>27.43689794645723</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="U46" t="n">
-        <v>27.43689794645723</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="V46" t="n">
-        <v>27.43689794645723</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="W46" t="n">
-        <v>6.075829024188749</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="X46" t="n">
-        <v>6.075829024188749</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="Y46" t="n">
-        <v>6.075829024188749</v>
+        <v>6.075829024188753</v>
       </c>
     </row>
   </sheetData>
@@ -23263,7 +23263,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>340.946611566943</v>
       </c>
       <c r="E11" t="n">
         <v>410.1968133282722</v>
@@ -23275,13 +23275,13 @@
         <v>344.3345890409332</v>
       </c>
       <c r="H11" t="n">
-        <v>240.7504741561718</v>
+        <v>299.2609424255035</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>53.34574647084391</v>
       </c>
       <c r="J11" t="n">
-        <v>2.561529487768127</v>
+        <v>2.561529487768155</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23305,13 +23305,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>34.94015068046657</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>55.456890477138</v>
+        <v>97.4861844992832</v>
       </c>
       <c r="T11" t="n">
-        <v>216.3347521986172</v>
+        <v>156.8620731576902</v>
       </c>
       <c r="U11" t="n">
         <v>254.4231881683461</v>
@@ -23342,25 +23342,25 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D12" t="n">
-        <v>115.7281862028015</v>
+        <v>56.25550716187449</v>
       </c>
       <c r="E12" t="n">
-        <v>101.0760728724333</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F12" t="n">
-        <v>48.39760197839338</v>
+        <v>48.39760197839347</v>
       </c>
       <c r="G12" t="n">
-        <v>46.0014459372744</v>
+        <v>46.0014459372745</v>
       </c>
       <c r="H12" t="n">
-        <v>6.258804554730609</v>
+        <v>65.73148359565771</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>24.9478811906359</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>9.2238395334507</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,10 +23384,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>31.30370070620052</v>
+        <v>31.30370070620053</v>
       </c>
       <c r="S12" t="n">
-        <v>98.6242472041391</v>
+        <v>46.24071150489063</v>
       </c>
       <c r="T12" t="n">
         <v>155.9504032118166</v>
@@ -23439,10 +23439,10 @@
         <v>103.9358664753031</v>
       </c>
       <c r="J13" t="n">
-        <v>24.99247658896605</v>
+        <v>24.99247658896606</v>
       </c>
       <c r="K13" t="n">
-        <v>8.800227985042895</v>
+        <v>8.800227985042916</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23454,13 +23454,13 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>3.213959012517122</v>
       </c>
       <c r="P13" t="n">
-        <v>5.089441360401504</v>
+        <v>10.54817626425423</v>
       </c>
       <c r="Q13" t="n">
-        <v>30.04346509354571</v>
+        <v>30.04346509354572</v>
       </c>
       <c r="R13" t="n">
         <v>67.60431037256544</v>
@@ -23478,7 +23478,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>267.6062739298446</v>
       </c>
       <c r="X13" t="n">
         <v>235.9604235189134</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>346.6462888269176</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>346.5506657389355</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
@@ -23509,16 +23509,16 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>344.3345890409332</v>
+        <v>351.4237323826117</v>
       </c>
       <c r="H14" t="n">
-        <v>246.877406726255</v>
+        <v>299.2609424255035</v>
       </c>
       <c r="I14" t="n">
-        <v>53.34574647084389</v>
+        <v>53.34574647084391</v>
       </c>
       <c r="J14" t="n">
-        <v>2.561529487768127</v>
+        <v>2.561529487768155</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23542,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>34.94015068046657</v>
+        <v>34.94015068046659</v>
       </c>
       <c r="S14" t="n">
         <v>114.9295695180651</v>
       </c>
       <c r="T14" t="n">
-        <v>156.8620731576902</v>
+        <v>216.3347521986172</v>
       </c>
       <c r="U14" t="n">
-        <v>194.9505091274191</v>
+        <v>254.4231881683461</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
@@ -23563,7 +23563,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>337.4546272804638</v>
       </c>
     </row>
     <row r="15">
@@ -23582,22 +23582,22 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E15" t="n">
-        <v>101.0760728724334</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F15" t="n">
-        <v>48.39760197839341</v>
+        <v>48.39760197839343</v>
       </c>
       <c r="G15" t="n">
-        <v>46.00144593727444</v>
+        <v>46.00144593727446</v>
       </c>
       <c r="H15" t="n">
-        <v>6.258804554730645</v>
+        <v>65.73148359565771</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>24.9478811906359</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>9.2238395334507</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>31.30370070620052</v>
+        <v>31.30370070620053</v>
       </c>
       <c r="S15" t="n">
-        <v>98.6242472041391</v>
+        <v>39.15156816321208</v>
       </c>
       <c r="T15" t="n">
         <v>155.9504032118166</v>
       </c>
       <c r="U15" t="n">
-        <v>195.347954951808</v>
+        <v>142.9644192525595</v>
       </c>
       <c r="V15" t="n">
         <v>211.5744117368965</v>
@@ -23676,10 +23676,10 @@
         <v>103.9358664753031</v>
       </c>
       <c r="J16" t="n">
-        <v>24.99247658896605</v>
+        <v>24.99247658896606</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1275340686730821</v>
+        <v>8.800227985042916</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23691,13 +23691,13 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>3.213959012517101</v>
+        <v>3.213959012517122</v>
       </c>
       <c r="P16" t="n">
-        <v>10.54817626425422</v>
+        <v>10.54817626425423</v>
       </c>
       <c r="Q16" t="n">
-        <v>30.04346509354571</v>
+        <v>30.04346509354572</v>
       </c>
       <c r="R16" t="n">
         <v>67.60431037256544</v>
@@ -23718,7 +23718,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>227.2877296025437</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -23743,16 +23743,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>381.1433265712799</v>
       </c>
       <c r="G17" t="n">
-        <v>403.7480150306399</v>
+        <v>327.8001522282804</v>
       </c>
       <c r="H17" t="n">
         <v>298.6541171146935</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>51.06139321367294</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>15.38461185910361</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>37.63147781102285</v>
+        <v>113.5793406133823</v>
       </c>
       <c r="T17" t="n">
-        <v>140.1275091645409</v>
+        <v>140.1275091645408</v>
       </c>
       <c r="U17" t="n">
-        <v>178.470585121889</v>
+        <v>178.4705851218889</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
@@ -23819,22 +23819,22 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E18" t="n">
-        <v>101.2906987387386</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F18" t="n">
-        <v>31.92241821696101</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G18" t="n">
-        <v>29.49455899848392</v>
+        <v>29.49455899848383</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>65.42529764590962</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>23.85634635615705</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>6.228584518226647</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.3353227295276</v>
       </c>
       <c r="S18" t="n">
-        <v>98.03537458961453</v>
+        <v>22.08751178725498</v>
       </c>
       <c r="T18" t="n">
-        <v>155.8226171592196</v>
+        <v>79.87475435686007</v>
       </c>
       <c r="U18" t="n">
-        <v>195.3458692164555</v>
+        <v>128.4509916601372</v>
       </c>
       <c r="V18" t="n">
         <v>211.5744117368965</v>
@@ -23901,7 +23901,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>141.8373563974689</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
         <v>165.1773242806354</v>
@@ -23913,10 +23913,10 @@
         <v>103.1365670983785</v>
       </c>
       <c r="J19" t="n">
-        <v>23.11334984944295</v>
+        <v>23.11334984944293</v>
       </c>
       <c r="K19" t="n">
-        <v>5.712245507081576</v>
+        <v>5.712245507081541</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23931,13 +23931,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>7.333581672173047</v>
+        <v>7.333581672173004</v>
       </c>
       <c r="Q19" t="n">
-        <v>27.81784642339691</v>
+        <v>27.81784642339689</v>
       </c>
       <c r="R19" t="n">
-        <v>66.40922732593032</v>
+        <v>66.4092273259303</v>
       </c>
       <c r="S19" t="n">
         <v>177.547131831091</v>
@@ -23946,7 +23946,7 @@
         <v>235.4417556781015</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9483170948056</v>
+        <v>258.8008588617597</v>
       </c>
       <c r="V19" t="n">
         <v>271.1468876098733</v>
@@ -23974,22 +23974,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>324.4714278055105</v>
       </c>
       <c r="E20" t="n">
-        <v>343.301935771954</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>340.8722451234898</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>327.8001522282805</v>
+        <v>403.7480150306399</v>
       </c>
       <c r="H20" t="n">
-        <v>222.7062543123341</v>
+        <v>298.6541171146935</v>
       </c>
       <c r="I20" t="n">
-        <v>51.06139321367296</v>
+        <v>51.06139321367294</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,13 +24016,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>31.21809620174888</v>
+        <v>31.21809620174884</v>
       </c>
       <c r="S20" t="n">
         <v>113.5793406133823</v>
       </c>
       <c r="T20" t="n">
-        <v>216.0753719669003</v>
+        <v>149.1804944105821</v>
       </c>
       <c r="U20" t="n">
         <v>254.4184479242485</v>
@@ -24034,10 +24034,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>320.6891010503774</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>320.9794435190312</v>
       </c>
     </row>
     <row r="21">
@@ -24056,22 +24056,22 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E21" t="n">
-        <v>52.39301029127709</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F21" t="n">
-        <v>31.92241821696101</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G21" t="n">
-        <v>29.49455899848392</v>
+        <v>29.49455899848383</v>
       </c>
       <c r="H21" t="n">
         <v>65.42529764590962</v>
       </c>
       <c r="I21" t="n">
-        <v>23.85634635615707</v>
+        <v>23.85634635615705</v>
       </c>
       <c r="J21" t="n">
-        <v>6.228584518226683</v>
+        <v>6.228584518226647</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>29.33532272952762</v>
+        <v>29.3353227295276</v>
       </c>
       <c r="S21" t="n">
-        <v>98.03537458961453</v>
+        <v>31.14049703329628</v>
       </c>
       <c r="T21" t="n">
-        <v>155.8226171592196</v>
+        <v>79.87475435686007</v>
       </c>
       <c r="U21" t="n">
-        <v>195.3458692164555</v>
+        <v>119.3980064140959</v>
       </c>
       <c r="V21" t="n">
         <v>211.5744117368965</v>
@@ -24113,7 +24113,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X21" t="n">
-        <v>98.61485924013667</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y21" t="n">
         <v>157.8079400398083</v>
@@ -24150,10 +24150,10 @@
         <v>103.1365670983785</v>
       </c>
       <c r="J22" t="n">
-        <v>7.678137123478741</v>
+        <v>23.11334984944293</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>5.712245507081541</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24168,19 +24168,19 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>7.333581672173047</v>
+        <v>7.333581672173004</v>
       </c>
       <c r="Q22" t="n">
-        <v>27.81784642339691</v>
+        <v>27.81784642339689</v>
       </c>
       <c r="R22" t="n">
-        <v>66.40922732593032</v>
+        <v>66.4092273259303</v>
       </c>
       <c r="S22" t="n">
         <v>177.547131831091</v>
       </c>
       <c r="T22" t="n">
-        <v>235.4417556781015</v>
+        <v>214.2942974450555</v>
       </c>
       <c r="U22" t="n">
         <v>279.9483170948056</v>
@@ -24205,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>339.2240903115264</v>
       </c>
       <c r="C23" t="n">
-        <v>339.1284672235444</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
         <v>324.4714278055106</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>334.2489505259128</v>
       </c>
       <c r="F23" t="n">
         <v>416.8201079258493</v>
@@ -24256,7 +24256,7 @@
         <v>31.21809620174889</v>
       </c>
       <c r="S23" t="n">
-        <v>37.63147781102287</v>
+        <v>113.5793406133823</v>
       </c>
       <c r="T23" t="n">
         <v>216.0753719669003</v>
@@ -24274,7 +24274,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>320.9794435190313</v>
+        <v>320.9794435190314</v>
       </c>
     </row>
     <row r="24">
@@ -24293,22 +24293,22 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E24" t="n">
-        <v>43.34002504523585</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F24" t="n">
-        <v>31.92241821696102</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G24" t="n">
-        <v>105.4424218008434</v>
+        <v>29.49455899848397</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>65.42529764590962</v>
       </c>
       <c r="I24" t="n">
         <v>23.85634635615707</v>
       </c>
       <c r="J24" t="n">
-        <v>4.75900460781812</v>
+        <v>6.22858451822669</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24344,13 +24344,13 @@
         <v>195.3458692164555</v>
       </c>
       <c r="V24" t="n">
-        <v>211.5744117368965</v>
+        <v>135.6265489345371</v>
       </c>
       <c r="W24" t="n">
         <v>135.1529737786751</v>
       </c>
       <c r="X24" t="n">
-        <v>174.5627220424961</v>
+        <v>107.667844486178</v>
       </c>
       <c r="Y24" t="n">
         <v>157.8079400398083</v>
@@ -24384,7 +24384,7 @@
         <v>144.5500124639718</v>
       </c>
       <c r="I25" t="n">
-        <v>81.98910886533274</v>
+        <v>103.1365670983785</v>
       </c>
       <c r="J25" t="n">
         <v>23.11334984944296</v>
@@ -24420,7 +24420,7 @@
         <v>235.4417556781015</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9483170948056</v>
+        <v>258.8008588617599</v>
       </c>
       <c r="V25" t="n">
         <v>271.1468876098733</v>
@@ -24451,13 +24451,13 @@
         <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>343.301935771954</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>340.8722451234899</v>
       </c>
       <c r="G26" t="n">
-        <v>336.8531374743217</v>
+        <v>403.7480150306399</v>
       </c>
       <c r="H26" t="n">
         <v>298.6541171146935</v>
@@ -24496,13 +24496,13 @@
         <v>113.5793406133823</v>
       </c>
       <c r="T26" t="n">
-        <v>140.1275091645409</v>
+        <v>216.0753719669003</v>
       </c>
       <c r="U26" t="n">
         <v>254.4184479242485</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>270.3913163145247</v>
       </c>
       <c r="W26" t="n">
         <v>303.9748350538237</v>
@@ -24511,7 +24511,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>320.9794435190313</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -24527,13 +24527,13 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D27" t="n">
-        <v>115.7281862028015</v>
+        <v>39.78032340044207</v>
       </c>
       <c r="E27" t="n">
-        <v>119.2878878475953</v>
+        <v>43.34002504523588</v>
       </c>
       <c r="F27" t="n">
-        <v>40.97540346300227</v>
+        <v>40.97540346300229</v>
       </c>
       <c r="G27" t="n">
         <v>105.4424218008434</v>
@@ -24572,7 +24572,7 @@
         <v>29.33532272952762</v>
       </c>
       <c r="S27" t="n">
-        <v>98.03537458961453</v>
+        <v>22.08751178725512</v>
       </c>
       <c r="T27" t="n">
         <v>155.8226171592196</v>
@@ -24581,13 +24581,13 @@
         <v>195.3458692164555</v>
       </c>
       <c r="V27" t="n">
-        <v>135.6265489345371</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W27" t="n">
-        <v>135.1529737786751</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X27" t="n">
-        <v>98.61485924013668</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y27" t="n">
         <v>157.8079400398083</v>
@@ -24603,7 +24603,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>148.2349804808549</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
         <v>157.8996982303191</v>
@@ -24654,7 +24654,7 @@
         <v>177.547131831091</v>
       </c>
       <c r="T28" t="n">
-        <v>235.4417556781015</v>
+        <v>214.2942974450557</v>
       </c>
       <c r="U28" t="n">
         <v>279.9483170948056</v>
@@ -24688,10 +24688,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>334.2489505259128</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>340.8722451234899</v>
+        <v>349.9252303695311</v>
       </c>
       <c r="G29" t="n">
         <v>403.7480150306399</v>
@@ -24730,7 +24730,7 @@
         <v>31.21809620174888</v>
       </c>
       <c r="S29" t="n">
-        <v>46.68446305706416</v>
+        <v>37.6314778110229</v>
       </c>
       <c r="T29" t="n">
         <v>140.1275091645409</v>
@@ -24739,7 +24739,7 @@
         <v>254.4184479242485</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>270.3913163145247</v>
       </c>
       <c r="W29" t="n">
         <v>379.9226978561831</v>
@@ -24758,19 +24758,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>62.95213950687136</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C30" t="n">
-        <v>56.70725773618435</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D30" t="n">
-        <v>115.7281862028015</v>
+        <v>39.78032340044209</v>
       </c>
       <c r="E30" t="n">
-        <v>119.2878878475953</v>
+        <v>52.39301029127711</v>
       </c>
       <c r="F30" t="n">
-        <v>107.8702810193205</v>
+        <v>31.92241821696106</v>
       </c>
       <c r="G30" t="n">
         <v>105.4424218008434</v>
@@ -24809,7 +24809,7 @@
         <v>29.33532272952762</v>
       </c>
       <c r="S30" t="n">
-        <v>98.03537458961453</v>
+        <v>22.08751178725514</v>
       </c>
       <c r="T30" t="n">
         <v>155.8226171592196</v>
@@ -24821,13 +24821,13 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W30" t="n">
-        <v>135.1529737786751</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X30" t="n">
         <v>174.5627220424961</v>
       </c>
       <c r="Y30" t="n">
-        <v>90.91306248348994</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="31">
@@ -24846,7 +24846,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>138.1542487473179</v>
       </c>
       <c r="F31" t="n">
         <v>162.9848146305146</v>
@@ -24900,7 +24900,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>255.1315096131686</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
         <v>235.9604235189134</v>
@@ -24919,16 +24919,16 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>330.0754819775032</v>
       </c>
       <c r="D32" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>334.2489505259128</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>381.14332657128</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
         <v>327.8001522282805</v>
@@ -24970,16 +24970,16 @@
         <v>113.5793406133823</v>
       </c>
       <c r="T32" t="n">
-        <v>140.1275091645409</v>
+        <v>216.0753719669003</v>
       </c>
       <c r="U32" t="n">
         <v>254.4184479242485</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>270.3913163145247</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>344.2459165016138</v>
       </c>
       <c r="X32" t="n">
         <v>396.636963852737</v>
@@ -25001,16 +25001,16 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D33" t="n">
-        <v>115.7281862028015</v>
+        <v>39.78032340044209</v>
       </c>
       <c r="E33" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F33" t="n">
-        <v>107.8702810193205</v>
+        <v>31.92241821696106</v>
       </c>
       <c r="G33" t="n">
-        <v>105.4424218008434</v>
+        <v>38.54754424452503</v>
       </c>
       <c r="H33" t="n">
         <v>65.42529764590962</v>
@@ -25019,7 +25019,7 @@
         <v>23.85634635615707</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>6.228584518226683</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25049,10 +25049,10 @@
         <v>98.03537458961453</v>
       </c>
       <c r="T33" t="n">
-        <v>95.15632412112814</v>
+        <v>155.8226171592196</v>
       </c>
       <c r="U33" t="n">
-        <v>119.3980064140961</v>
+        <v>195.3458692164555</v>
       </c>
       <c r="V33" t="n">
         <v>135.6265489345371</v>
@@ -25061,7 +25061,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X33" t="n">
-        <v>98.61485924013671</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y33" t="n">
         <v>157.8079400398083</v>
@@ -25095,7 +25095,7 @@
         <v>144.5500124639718</v>
       </c>
       <c r="I34" t="n">
-        <v>81.98910886533272</v>
+        <v>103.1365670983785</v>
       </c>
       <c r="J34" t="n">
         <v>23.11334984944295</v>
@@ -25125,7 +25125,7 @@
         <v>66.40922732593032</v>
       </c>
       <c r="S34" t="n">
-        <v>177.547131831091</v>
+        <v>156.3996735980452</v>
       </c>
       <c r="T34" t="n">
         <v>235.4417556781015</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>330.1711050654852</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
         <v>406.0233447798626</v>
@@ -25171,7 +25171,7 @@
         <v>403.7480150306399</v>
       </c>
       <c r="H35" t="n">
-        <v>298.6541171146935</v>
+        <v>222.7062543123341</v>
       </c>
       <c r="I35" t="n">
         <v>51.06139321367296</v>
@@ -25201,19 +25201,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>31.21809620174888</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>37.6314778110229</v>
+        <v>113.5793406133823</v>
       </c>
       <c r="T35" t="n">
-        <v>149.1804944105822</v>
+        <v>180.3985906123311</v>
       </c>
       <c r="U35" t="n">
-        <v>254.4184479242485</v>
+        <v>178.4705851218891</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>270.3913163145247</v>
       </c>
       <c r="W35" t="n">
         <v>379.9226978561831</v>
@@ -25222,7 +25222,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>320.9794435190314</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -25235,25 +25235,25 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C36" t="n">
-        <v>56.70725773618435</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D36" t="n">
-        <v>39.78032340044209</v>
+        <v>48.83330864648332</v>
       </c>
       <c r="E36" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F36" t="n">
-        <v>107.8702810193205</v>
+        <v>31.92241821696106</v>
       </c>
       <c r="G36" t="n">
-        <v>105.4424218008434</v>
+        <v>29.49455899848398</v>
       </c>
       <c r="H36" t="n">
-        <v>22.38676644574851</v>
+        <v>65.42529764590962</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>23.85634635615707</v>
       </c>
       <c r="J36" t="n">
         <v>6.228584518226683</v>
@@ -25289,7 +25289,7 @@
         <v>155.8226171592196</v>
       </c>
       <c r="U36" t="n">
-        <v>195.3458692164555</v>
+        <v>119.3980064140961</v>
       </c>
       <c r="V36" t="n">
         <v>211.5744117368965</v>
@@ -25301,7 +25301,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y36" t="n">
-        <v>81.86007723744888</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="37">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>164.6752510970582</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
         <v>169.3824387139007</v>
@@ -25368,7 +25368,7 @@
         <v>235.4417556781015</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9483170948056</v>
+        <v>258.8008588617599</v>
       </c>
       <c r="V37" t="n">
         <v>271.1468876098733</v>
@@ -25399,10 +25399,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>334.2489505259128</v>
       </c>
       <c r="F38" t="n">
-        <v>349.9252303695311</v>
+        <v>381.14332657128</v>
       </c>
       <c r="G38" t="n">
         <v>403.7480150306399</v>
@@ -25438,19 +25438,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>31.21809620174888</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>37.6314778110229</v>
       </c>
       <c r="T38" t="n">
-        <v>216.0753719669003</v>
+        <v>140.1275091645409</v>
       </c>
       <c r="U38" t="n">
-        <v>178.4705851218891</v>
+        <v>254.4184479242485</v>
       </c>
       <c r="V38" t="n">
-        <v>270.3913163145247</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
         <v>379.9226978561831</v>
@@ -25478,13 +25478,13 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E39" t="n">
-        <v>43.34002504523589</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F39" t="n">
-        <v>40.97540346300211</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G39" t="n">
-        <v>29.49455899848398</v>
+        <v>38.54754424452503</v>
       </c>
       <c r="H39" t="n">
         <v>65.42529764590962</v>
@@ -25520,19 +25520,19 @@
         <v>29.33532272952762</v>
       </c>
       <c r="S39" t="n">
-        <v>98.03537458961453</v>
+        <v>22.08751178725514</v>
       </c>
       <c r="T39" t="n">
-        <v>155.8226171592196</v>
+        <v>79.87475435686022</v>
       </c>
       <c r="U39" t="n">
         <v>195.3458692164555</v>
       </c>
       <c r="V39" t="n">
-        <v>135.6265489345371</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W39" t="n">
-        <v>211.1008365810345</v>
+        <v>135.1529737786751</v>
       </c>
       <c r="X39" t="n">
         <v>174.5627220424961</v>
@@ -25560,7 +25560,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>141.8373563974689</v>
       </c>
       <c r="G40" t="n">
         <v>165.1773242806354</v>
@@ -25572,10 +25572,10 @@
         <v>103.1365670983785</v>
       </c>
       <c r="J40" t="n">
-        <v>7.678137123478741</v>
+        <v>23.11334984944295</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>5.712245507081576</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -25630,19 +25630,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>330.0754819775032</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>334.2489505259128</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>340.8722451234899</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>368.0712336760706</v>
+        <v>403.7480150306399</v>
       </c>
       <c r="H41" t="n">
         <v>298.6541171146935</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>113.5793406133823</v>
+        <v>37.63147781102289</v>
       </c>
       <c r="T41" t="n">
-        <v>216.0753719669003</v>
+        <v>140.1275091645409</v>
       </c>
       <c r="U41" t="n">
-        <v>254.4184479242485</v>
+        <v>218.7416665696792</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -25696,7 +25696,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>320.9794435190314</v>
       </c>
     </row>
     <row r="42">
@@ -25706,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>138.9000023092308</v>
+        <v>90.81788232599041</v>
       </c>
       <c r="C42" t="n">
-        <v>65.76024298222556</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D42" t="n">
         <v>115.7281862028015</v>
@@ -25721,10 +25721,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G42" t="n">
-        <v>105.4424218008434</v>
+        <v>29.49455899848397</v>
       </c>
       <c r="H42" t="n">
-        <v>65.42529764590962</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>23.85634635615707</v>
@@ -25754,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>29.33532272952762</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>98.03537458961453</v>
+        <v>22.08751178725512</v>
       </c>
       <c r="T42" t="n">
-        <v>79.87475435686022</v>
+        <v>155.8226171592196</v>
       </c>
       <c r="U42" t="n">
-        <v>119.3980064140961</v>
+        <v>195.3458692164555</v>
       </c>
       <c r="V42" t="n">
         <v>211.5744117368965</v>
@@ -25772,7 +25772,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X42" t="n">
-        <v>98.61485924013672</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y42" t="n">
         <v>157.8079400398083</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>164.6752510970582</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
         <v>169.3824387139007</v>
@@ -25800,7 +25800,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>165.1773242806354</v>
+        <v>144.0298660475896</v>
       </c>
       <c r="H43" t="n">
         <v>144.5500124639718</v>
@@ -25867,22 +25867,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>339.1284672235444</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>334.2489505259128</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>327.8001522282806</v>
+        <v>403.7480150306399</v>
       </c>
       <c r="H44" t="n">
-        <v>298.6541171146935</v>
+        <v>222.7062543123341</v>
       </c>
       <c r="I44" t="n">
         <v>51.06139321367296</v>
@@ -25918,10 +25918,10 @@
         <v>113.5793406133823</v>
       </c>
       <c r="T44" t="n">
-        <v>216.0753719669003</v>
+        <v>140.1275091645409</v>
       </c>
       <c r="U44" t="n">
-        <v>254.4184479242485</v>
+        <v>178.4705851218891</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -25930,10 +25930,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>329.7420862964188</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>320.9794435190314</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -25949,7 +25949,7 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D45" t="n">
-        <v>39.78032340044211</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E45" t="n">
         <v>119.2878878475953</v>
@@ -25964,7 +25964,7 @@
         <v>65.42529764590962</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>23.85634635615707</v>
       </c>
       <c r="J45" t="n">
         <v>6.228584518226683</v>
@@ -26003,16 +26003,16 @@
         <v>119.3980064140961</v>
       </c>
       <c r="V45" t="n">
-        <v>135.6265489345371</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W45" t="n">
-        <v>168.0623053808735</v>
+        <v>135.1529737786751</v>
       </c>
       <c r="X45" t="n">
-        <v>174.5627220424961</v>
+        <v>107.6678444861778</v>
       </c>
       <c r="Y45" t="n">
-        <v>157.8079400398083</v>
+        <v>81.86007723744886</v>
       </c>
     </row>
     <row r="46">
@@ -26073,7 +26073,7 @@
         <v>66.40922732593032</v>
       </c>
       <c r="S46" t="n">
-        <v>177.547131831091</v>
+        <v>156.3996735980452</v>
       </c>
       <c r="T46" t="n">
         <v>235.4417556781015</v>
@@ -26085,7 +26085,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>255.1315096131686</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>172312.778275185</v>
+        <v>172312.7782751849</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>172312.778275185</v>
+        <v>172312.7782751849</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>185594.9041191762</v>
+        <v>185594.9041191763</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>185594.9041191762</v>
+        <v>185594.9041191763</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>185594.9041191762</v>
+        <v>185594.9041191761</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>185594.9041191762</v>
+        <v>185594.9041191761</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>185594.9041191762</v>
+        <v>185594.9041191761</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>185594.9041191761</v>
+        <v>185594.9041191762</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>185594.9041191761</v>
+        <v>185594.9041191762</v>
       </c>
     </row>
   </sheetData>
@@ -26322,40 +26322,40 @@
         <v>29417.50376023582</v>
       </c>
       <c r="E2" t="n">
+        <v>46994.39407505042</v>
+      </c>
+      <c r="F2" t="n">
         <v>46994.39407505045</v>
       </c>
-      <c r="F2" t="n">
-        <v>46994.39407505046</v>
-      </c>
       <c r="G2" t="n">
+        <v>50616.7920325026</v>
+      </c>
+      <c r="H2" t="n">
+        <v>50616.79203250261</v>
+      </c>
+      <c r="I2" t="n">
         <v>50616.79203250259</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>50616.79203250259</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>50616.79203250259</v>
+      </c>
+      <c r="L2" t="n">
         <v>50616.79203250258</v>
       </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
+        <v>50616.79203250256</v>
+      </c>
+      <c r="N2" t="n">
         <v>50616.79203250258</v>
       </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
+        <v>50616.7920325026</v>
+      </c>
+      <c r="P2" t="n">
         <v>50616.79203250258</v>
-      </c>
-      <c r="L2" t="n">
-        <v>50616.79203250259</v>
-      </c>
-      <c r="M2" t="n">
-        <v>50616.79203250257</v>
-      </c>
-      <c r="N2" t="n">
-        <v>50616.79203250259</v>
-      </c>
-      <c r="O2" t="n">
-        <v>50616.79203250257</v>
-      </c>
-      <c r="P2" t="n">
-        <v>50616.7920325026</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>78199.04675957611</v>
+        <v>78199.04675957601</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>15975.13440349049</v>
+        <v>15975.13440349073</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>14820.82950771519</v>
+        <v>14820.82950771517</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>3964.76944737247</v>
+        <v>3964.769447372502</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,37 +26426,37 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>43.41281992390651</v>
+        <v>43.41281992390644</v>
       </c>
       <c r="F4" t="n">
-        <v>43.4128199239065</v>
+        <v>43.41281992390645</v>
       </c>
       <c r="G4" t="n">
-        <v>55.80904781929517</v>
+        <v>55.8090478192953</v>
       </c>
       <c r="H4" t="n">
-        <v>55.80904781929517</v>
+        <v>55.8090478192953</v>
       </c>
       <c r="I4" t="n">
         <v>55.80904781929515</v>
       </c>
       <c r="J4" t="n">
+        <v>55.80904781929516</v>
+      </c>
+      <c r="K4" t="n">
+        <v>55.80904781929516</v>
+      </c>
+      <c r="L4" t="n">
         <v>55.80904781929517</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>55.80904781929517</v>
-      </c>
-      <c r="L4" t="n">
-        <v>55.80904781929516</v>
-      </c>
-      <c r="M4" t="n">
-        <v>55.80904781929516</v>
       </c>
       <c r="N4" t="n">
         <v>55.80904781929517</v>
       </c>
       <c r="O4" t="n">
-        <v>55.80904781929515</v>
+        <v>55.80904781929516</v>
       </c>
       <c r="P4" t="n">
         <v>55.80904781929517</v>
@@ -26478,28 +26478,28 @@
         <v>36508.66363315053</v>
       </c>
       <c r="E5" t="n">
-        <v>8137.065510503471</v>
+        <v>8137.065510503464</v>
       </c>
       <c r="F5" t="n">
-        <v>8137.065510503469</v>
+        <v>8137.065510503466</v>
       </c>
       <c r="G5" t="n">
-        <v>9460.071166703485</v>
+        <v>9460.071166703496</v>
       </c>
       <c r="H5" t="n">
-        <v>9460.071166703485</v>
+        <v>9460.071166703496</v>
       </c>
       <c r="I5" t="n">
-        <v>9460.071166703485</v>
+        <v>9460.071166703483</v>
       </c>
       <c r="J5" t="n">
-        <v>9460.071166703485</v>
+        <v>9460.071166703483</v>
       </c>
       <c r="K5" t="n">
         <v>9460.071166703481</v>
       </c>
       <c r="L5" t="n">
-        <v>9460.071166703483</v>
+        <v>9460.071166703481</v>
       </c>
       <c r="M5" t="n">
         <v>9460.071166703481</v>
@@ -26508,10 +26508,10 @@
         <v>9460.071166703481</v>
       </c>
       <c r="O5" t="n">
-        <v>9460.071166703481</v>
+        <v>9460.071166703483</v>
       </c>
       <c r="P5" t="n">
-        <v>9460.071166703481</v>
+        <v>9460.071166703483</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-134441.1768789277</v>
+        <v>-135873.8841175174</v>
       </c>
       <c r="C6" t="n">
-        <v>-7091.159872914712</v>
+        <v>-8523.867111504376</v>
       </c>
       <c r="D6" t="n">
-        <v>-7091.159872914712</v>
+        <v>-8523.867111504376</v>
       </c>
       <c r="E6" t="n">
-        <v>-39385.13101495304</v>
+        <v>-40700.65898477719</v>
       </c>
       <c r="F6" t="n">
-        <v>38813.91574462309</v>
+        <v>37498.38777479884</v>
       </c>
       <c r="G6" t="n">
-        <v>25125.77741448932</v>
+        <v>23834.3987643812</v>
       </c>
       <c r="H6" t="n">
-        <v>41100.91181797981</v>
+        <v>39809.53316787192</v>
       </c>
       <c r="I6" t="n">
-        <v>41100.9118179798</v>
+        <v>39809.53316787192</v>
       </c>
       <c r="J6" t="n">
-        <v>41100.9118179798</v>
+        <v>39809.53316787192</v>
       </c>
       <c r="K6" t="n">
-        <v>41100.91181797981</v>
+        <v>39809.53316787192</v>
       </c>
       <c r="L6" t="n">
-        <v>41100.91181797981</v>
+        <v>39809.53316787191</v>
       </c>
       <c r="M6" t="n">
-        <v>26280.0823102646</v>
+        <v>24988.70366015673</v>
       </c>
       <c r="N6" t="n">
-        <v>41100.91181797982</v>
+        <v>39809.53316787191</v>
       </c>
       <c r="O6" t="n">
-        <v>37136.14237060733</v>
+        <v>35844.76372049942</v>
       </c>
       <c r="P6" t="n">
-        <v>41100.91181797982</v>
+        <v>39809.53316787191</v>
       </c>
     </row>
   </sheetData>
@@ -26752,10 +26752,10 @@
         <v>207.3911295786745</v>
       </c>
       <c r="G3" t="n">
-        <v>222.1303260697262</v>
+        <v>222.1303260697264</v>
       </c>
       <c r="H3" t="n">
-        <v>222.1303260697262</v>
+        <v>222.1303260697264</v>
       </c>
       <c r="I3" t="n">
         <v>222.1303260697262</v>
@@ -26798,28 +26798,28 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>59.47267904092708</v>
+        <v>59.47267904092699</v>
       </c>
       <c r="F4" t="n">
-        <v>59.47267904092705</v>
+        <v>59.47267904092703</v>
       </c>
       <c r="G4" t="n">
-        <v>75.94786280235945</v>
+        <v>75.94786280235955</v>
       </c>
       <c r="H4" t="n">
-        <v>75.94786280235945</v>
+        <v>75.94786280235955</v>
       </c>
       <c r="I4" t="n">
-        <v>75.94786280235944</v>
+        <v>75.94786280235941</v>
       </c>
       <c r="J4" t="n">
-        <v>75.94786280235944</v>
+        <v>75.94786280235941</v>
       </c>
       <c r="K4" t="n">
         <v>75.9478628023594</v>
       </c>
       <c r="L4" t="n">
-        <v>75.94786280235941</v>
+        <v>75.9478628023594</v>
       </c>
       <c r="M4" t="n">
         <v>75.9478628023594</v>
@@ -26828,10 +26828,10 @@
         <v>75.9478628023594</v>
       </c>
       <c r="O4" t="n">
-        <v>75.9478628023594</v>
+        <v>75.94786280235941</v>
       </c>
       <c r="P4" t="n">
-        <v>75.94786280235937</v>
+        <v>75.94786280235941</v>
       </c>
     </row>
   </sheetData>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>75.232247324063</v>
+        <v>75.23224732406291</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>14.73919649105167</v>
+        <v>14.73919649105193</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>59.47267904092708</v>
+        <v>59.47267904092699</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>16.4751837614324</v>
+        <v>16.47518376143253</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>59.47267904092707</v>
+        <v>59.47267904092699</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>16.4751837614324</v>
+        <v>16.47518376143254</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>59.47267904092708</v>
+        <v>59.47267904092699</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>16.4751837614324</v>
+        <v>16.47518376143253</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31752,22 +31752,22 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8337331842358769</v>
+        <v>0.8337331842358766</v>
       </c>
       <c r="H11" t="n">
-        <v>8.538469973055676</v>
+        <v>8.538469973055673</v>
       </c>
       <c r="I11" t="n">
-        <v>32.14249858525368</v>
+        <v>32.14249858525366</v>
       </c>
       <c r="J11" t="n">
-        <v>70.76206184553982</v>
+        <v>70.76206184553979</v>
       </c>
       <c r="K11" t="n">
         <v>106.0539875342445</v>
       </c>
       <c r="L11" t="n">
-        <v>131.5693494713033</v>
+        <v>131.5693494713032</v>
       </c>
       <c r="M11" t="n">
         <v>146.396251986458</v>
@@ -31779,22 +31779,22 @@
         <v>140.4746620454227</v>
       </c>
       <c r="P11" t="n">
-        <v>119.8918740595995</v>
+        <v>119.8918740595994</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03380439915212</v>
+        <v>90.03380439915207</v>
       </c>
       <c r="R11" t="n">
-        <v>52.37199213425695</v>
+        <v>52.37199213425693</v>
       </c>
       <c r="S11" t="n">
         <v>18.99869493577506</v>
       </c>
       <c r="T11" t="n">
-        <v>3.649667013992553</v>
+        <v>3.649667013992552</v>
       </c>
       <c r="U11" t="n">
-        <v>0.06669865473887014</v>
+        <v>0.06669865473887011</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4460865806031867</v>
+        <v>0.4460865806031866</v>
       </c>
       <c r="H12" t="n">
-        <v>4.308257238983409</v>
+        <v>4.308257238983408</v>
       </c>
       <c r="I12" t="n">
-        <v>15.35868270936411</v>
+        <v>15.3586827093641</v>
       </c>
       <c r="J12" t="n">
-        <v>42.14539926654933</v>
+        <v>42.14539926654931</v>
       </c>
       <c r="K12" t="n">
-        <v>72.03320016696284</v>
+        <v>72.03320016696281</v>
       </c>
       <c r="L12" t="n">
-        <v>96.85752707351212</v>
+        <v>96.85752707351207</v>
       </c>
       <c r="M12" t="n">
-        <v>113.0281656203776</v>
+        <v>97.07181845061837</v>
       </c>
       <c r="N12" t="n">
-        <v>112.6660724346771</v>
+        <v>112.666072434677</v>
       </c>
       <c r="O12" t="n">
-        <v>90.17899817226311</v>
+        <v>106.1353453420222</v>
       </c>
       <c r="P12" t="n">
-        <v>85.18297169430502</v>
+        <v>85.182971694305</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.94256070997872</v>
+        <v>56.9425607099787</v>
       </c>
       <c r="R12" t="n">
-        <v>27.69649839920489</v>
+        <v>27.69649839920487</v>
       </c>
       <c r="S12" t="n">
-        <v>8.285862582695152</v>
+        <v>8.285862582695149</v>
       </c>
       <c r="T12" t="n">
         <v>1.7980419630453</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02934780135547282</v>
+        <v>0.02934780135547281</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3739840041582655</v>
+        <v>0.3739840041582654</v>
       </c>
       <c r="H13" t="n">
-        <v>3.325057782425309</v>
+        <v>3.325057782425307</v>
       </c>
       <c r="I13" t="n">
-        <v>11.24671896141403</v>
+        <v>11.24671896141402</v>
       </c>
       <c r="J13" t="n">
-        <v>26.44066909398937</v>
+        <v>26.44066909398936</v>
       </c>
       <c r="K13" t="n">
-        <v>43.45014157402393</v>
+        <v>43.45014157402391</v>
       </c>
       <c r="L13" t="n">
-        <v>55.60122185458432</v>
+        <v>55.6012218545843</v>
       </c>
       <c r="M13" t="n">
-        <v>58.62369257909974</v>
+        <v>58.62369257909972</v>
       </c>
       <c r="N13" t="n">
-        <v>57.22975219996444</v>
+        <v>57.22975219996441</v>
       </c>
       <c r="O13" t="n">
-        <v>52.86093906047923</v>
+        <v>52.8609390604792</v>
       </c>
       <c r="P13" t="n">
-        <v>45.23166537565056</v>
+        <v>45.23166537565055</v>
       </c>
       <c r="Q13" t="n">
-        <v>31.31606056637985</v>
+        <v>31.31606056637984</v>
       </c>
       <c r="R13" t="n">
-        <v>16.81568076878892</v>
+        <v>16.81568076878891</v>
       </c>
       <c r="S13" t="n">
-        <v>6.517521236103589</v>
+        <v>6.517521236103586</v>
       </c>
       <c r="T13" t="n">
         <v>1.59793165413077</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02039912749954178</v>
+        <v>0.02039912749954177</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,22 +31989,22 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8337331842358769</v>
+        <v>0.8337331842358766</v>
       </c>
       <c r="H14" t="n">
-        <v>8.538469973055676</v>
+        <v>8.538469973055673</v>
       </c>
       <c r="I14" t="n">
-        <v>32.14249858525368</v>
+        <v>32.14249858525366</v>
       </c>
       <c r="J14" t="n">
-        <v>70.76206184553982</v>
+        <v>70.76206184553979</v>
       </c>
       <c r="K14" t="n">
         <v>106.0539875342445</v>
       </c>
       <c r="L14" t="n">
-        <v>131.5693494713033</v>
+        <v>131.5693494713032</v>
       </c>
       <c r="M14" t="n">
         <v>146.396251986458</v>
@@ -32016,22 +32016,22 @@
         <v>140.4746620454227</v>
       </c>
       <c r="P14" t="n">
-        <v>119.8918740595995</v>
+        <v>119.8918740595994</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03380439915212</v>
+        <v>90.03380439915207</v>
       </c>
       <c r="R14" t="n">
-        <v>52.37199213425695</v>
+        <v>52.37199213425693</v>
       </c>
       <c r="S14" t="n">
         <v>18.99869493577506</v>
       </c>
       <c r="T14" t="n">
-        <v>3.649667013992553</v>
+        <v>3.649667013992552</v>
       </c>
       <c r="U14" t="n">
-        <v>0.06669865473887014</v>
+        <v>0.06669865473887011</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,22 +32068,22 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4460865806031867</v>
+        <v>0.4460865806031866</v>
       </c>
       <c r="H15" t="n">
-        <v>4.308257238983409</v>
+        <v>4.308257238983408</v>
       </c>
       <c r="I15" t="n">
-        <v>15.35868270936411</v>
+        <v>15.3586827093641</v>
       </c>
       <c r="J15" t="n">
-        <v>42.14539926654933</v>
+        <v>42.14539926654931</v>
       </c>
       <c r="K15" t="n">
-        <v>56.07685299720358</v>
+        <v>56.07685299720375</v>
       </c>
       <c r="L15" t="n">
-        <v>96.85752707351212</v>
+        <v>96.85752707351207</v>
       </c>
       <c r="M15" t="n">
         <v>113.0281656203776</v>
@@ -32095,22 +32095,22 @@
         <v>106.1353453420222</v>
       </c>
       <c r="P15" t="n">
-        <v>85.18297169430502</v>
+        <v>85.182971694305</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.94256070997872</v>
+        <v>56.9425607099787</v>
       </c>
       <c r="R15" t="n">
-        <v>27.69649839920489</v>
+        <v>27.69649839920487</v>
       </c>
       <c r="S15" t="n">
-        <v>8.285862582695152</v>
+        <v>8.285862582695149</v>
       </c>
       <c r="T15" t="n">
         <v>1.7980419630453</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02934780135547282</v>
+        <v>0.02934780135547281</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3739840041582655</v>
+        <v>0.3739840041582654</v>
       </c>
       <c r="H16" t="n">
-        <v>3.325057782425309</v>
+        <v>3.325057782425307</v>
       </c>
       <c r="I16" t="n">
-        <v>11.24671896141403</v>
+        <v>11.24671896141402</v>
       </c>
       <c r="J16" t="n">
-        <v>26.44066909398937</v>
+        <v>26.44066909398936</v>
       </c>
       <c r="K16" t="n">
-        <v>43.45014157402393</v>
+        <v>43.45014157402391</v>
       </c>
       <c r="L16" t="n">
-        <v>55.60122185458432</v>
+        <v>55.6012218545843</v>
       </c>
       <c r="M16" t="n">
-        <v>58.62369257909974</v>
+        <v>58.62369257909972</v>
       </c>
       <c r="N16" t="n">
-        <v>57.22975219996444</v>
+        <v>57.22975219996441</v>
       </c>
       <c r="O16" t="n">
-        <v>52.86093906047923</v>
+        <v>52.8609390604792</v>
       </c>
       <c r="P16" t="n">
-        <v>45.23166537565056</v>
+        <v>45.23166537565055</v>
       </c>
       <c r="Q16" t="n">
-        <v>31.31606056637985</v>
+        <v>31.31606056637984</v>
       </c>
       <c r="R16" t="n">
-        <v>16.81568076878892</v>
+        <v>16.81568076878891</v>
       </c>
       <c r="S16" t="n">
-        <v>6.517521236103589</v>
+        <v>6.517521236103586</v>
       </c>
       <c r="T16" t="n">
         <v>1.59793165413077</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02039912749954178</v>
+        <v>0.02039912749954177</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8929862354561851</v>
+        <v>0.8929862354561857</v>
       </c>
       <c r="H17" t="n">
-        <v>9.145295283865657</v>
+        <v>9.145295283865664</v>
       </c>
       <c r="I17" t="n">
-        <v>34.42685184242461</v>
+        <v>34.42685184242463</v>
       </c>
       <c r="J17" t="n">
-        <v>75.79109050154946</v>
+        <v>75.79109050154952</v>
       </c>
       <c r="K17" t="n">
-        <v>113.5911978484098</v>
+        <v>113.5911978484099</v>
       </c>
       <c r="L17" t="n">
-        <v>140.9199253517521</v>
+        <v>140.9199253517522</v>
       </c>
       <c r="M17" t="n">
-        <v>156.800569316546</v>
+        <v>156.8005693165461</v>
       </c>
       <c r="N17" t="n">
-        <v>159.3377664580359</v>
+        <v>159.337766458036</v>
       </c>
       <c r="O17" t="n">
-        <v>150.4581345792184</v>
+        <v>150.4581345792186</v>
       </c>
       <c r="P17" t="n">
-        <v>128.4125368913938</v>
+        <v>128.4125368913939</v>
       </c>
       <c r="Q17" t="n">
-        <v>96.43246733411918</v>
+        <v>96.43246733411925</v>
       </c>
       <c r="R17" t="n">
-        <v>56.09404661297464</v>
+        <v>56.09404661297468</v>
       </c>
       <c r="S17" t="n">
-        <v>20.34892384045784</v>
+        <v>20.34892384045785</v>
       </c>
       <c r="T17" t="n">
-        <v>3.909047245709452</v>
+        <v>3.909047245709455</v>
       </c>
       <c r="U17" t="n">
-        <v>0.07143889883649479</v>
+        <v>0.07143889883649485</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4777897579612979</v>
+        <v>0.4777897579612982</v>
       </c>
       <c r="H18" t="n">
-        <v>4.614443188731483</v>
+        <v>4.614443188731487</v>
       </c>
       <c r="I18" t="n">
-        <v>16.45021754384294</v>
+        <v>16.45021754384295</v>
       </c>
       <c r="J18" t="n">
-        <v>45.14065428177333</v>
+        <v>45.14065428177337</v>
       </c>
       <c r="K18" t="n">
-        <v>77.15256806518029</v>
+        <v>77.15256806518035</v>
       </c>
       <c r="L18" t="n">
-        <v>103.7411489819037</v>
+        <v>103.7411489819038</v>
       </c>
       <c r="M18" t="n">
-        <v>121.0610277080008</v>
+        <v>121.0610277080009</v>
       </c>
       <c r="N18" t="n">
-        <v>124.2651528831009</v>
+        <v>124.265152883101</v>
       </c>
       <c r="O18" t="n">
-        <v>113.6783377198532</v>
+        <v>113.6783377198533</v>
       </c>
       <c r="P18" t="n">
-        <v>91.23688807946925</v>
+        <v>91.23688807946932</v>
       </c>
       <c r="Q18" t="n">
-        <v>60.98944348993691</v>
+        <v>60.98944348993695</v>
       </c>
       <c r="R18" t="n">
-        <v>29.66487637587779</v>
+        <v>29.66487637587781</v>
       </c>
       <c r="S18" t="n">
-        <v>8.874735197219715</v>
+        <v>8.874735197219723</v>
       </c>
       <c r="T18" t="n">
-        <v>1.925828015642248</v>
+        <v>1.92582801564225</v>
       </c>
       <c r="U18" t="n">
-        <v>0.03143353670798014</v>
+        <v>0.03143353670798016</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4005628830765554</v>
+        <v>0.4005628830765557</v>
       </c>
       <c r="H19" t="n">
-        <v>3.561368178626104</v>
+        <v>3.561368178626107</v>
       </c>
       <c r="I19" t="n">
-        <v>12.0460183383386</v>
+        <v>12.04601833833861</v>
       </c>
       <c r="J19" t="n">
-        <v>28.31979583351247</v>
+        <v>28.31979583351249</v>
       </c>
       <c r="K19" t="n">
-        <v>46.53812405198525</v>
+        <v>46.53812405198529</v>
       </c>
       <c r="L19" t="n">
-        <v>59.55277627121808</v>
+        <v>59.55277627121812</v>
       </c>
       <c r="M19" t="n">
-        <v>62.79005266262767</v>
+        <v>62.79005266262772</v>
       </c>
       <c r="N19" t="n">
-        <v>61.29704555297874</v>
+        <v>61.29704555297879</v>
       </c>
       <c r="O19" t="n">
-        <v>56.61774278249351</v>
+        <v>56.61774278249355</v>
       </c>
       <c r="P19" t="n">
-        <v>48.44625996773173</v>
+        <v>48.44625996773178</v>
       </c>
       <c r="Q19" t="n">
-        <v>33.54167923652866</v>
+        <v>33.54167923652868</v>
       </c>
       <c r="R19" t="n">
-        <v>18.01076381542402</v>
+        <v>18.01076381542404</v>
       </c>
       <c r="S19" t="n">
-        <v>6.980718607797786</v>
+        <v>6.980718607797791</v>
       </c>
       <c r="T19" t="n">
-        <v>1.711495954963464</v>
+        <v>1.711495954963465</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0218488845314485</v>
+        <v>0.02184888453144852</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.8929862354561851</v>
+        <v>0.8929862354561857</v>
       </c>
       <c r="H20" t="n">
-        <v>9.145295283865657</v>
+        <v>9.145295283865664</v>
       </c>
       <c r="I20" t="n">
-        <v>34.42685184242461</v>
+        <v>34.42685184242463</v>
       </c>
       <c r="J20" t="n">
-        <v>75.79109050154946</v>
+        <v>75.79109050154952</v>
       </c>
       <c r="K20" t="n">
-        <v>113.5911978484098</v>
+        <v>113.5911978484099</v>
       </c>
       <c r="L20" t="n">
-        <v>140.9199253517521</v>
+        <v>140.9199253517522</v>
       </c>
       <c r="M20" t="n">
-        <v>156.800569316546</v>
+        <v>156.8005693165461</v>
       </c>
       <c r="N20" t="n">
-        <v>159.3377664580359</v>
+        <v>159.337766458036</v>
       </c>
       <c r="O20" t="n">
-        <v>150.4581345792184</v>
+        <v>150.4581345792186</v>
       </c>
       <c r="P20" t="n">
-        <v>128.4125368913938</v>
+        <v>128.4125368913939</v>
       </c>
       <c r="Q20" t="n">
-        <v>96.43246733411918</v>
+        <v>96.43246733411925</v>
       </c>
       <c r="R20" t="n">
-        <v>56.09404661297464</v>
+        <v>56.09404661297468</v>
       </c>
       <c r="S20" t="n">
-        <v>20.34892384045784</v>
+        <v>20.34892384045785</v>
       </c>
       <c r="T20" t="n">
-        <v>3.909047245709452</v>
+        <v>3.909047245709455</v>
       </c>
       <c r="U20" t="n">
-        <v>0.07143889883649479</v>
+        <v>0.07143889883649485</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4777897579612979</v>
+        <v>0.4777897579612982</v>
       </c>
       <c r="H21" t="n">
-        <v>4.614443188731483</v>
+        <v>4.614443188731487</v>
       </c>
       <c r="I21" t="n">
-        <v>16.45021754384294</v>
+        <v>16.45021754384295</v>
       </c>
       <c r="J21" t="n">
-        <v>45.14065428177333</v>
+        <v>45.14065428177337</v>
       </c>
       <c r="K21" t="n">
-        <v>77.1525680651803</v>
+        <v>77.15256806518035</v>
       </c>
       <c r="L21" t="n">
-        <v>103.7411489819037</v>
+        <v>103.7411489819038</v>
       </c>
       <c r="M21" t="n">
-        <v>121.0610277080008</v>
+        <v>121.0610277080009</v>
       </c>
       <c r="N21" t="n">
-        <v>124.2651528831009</v>
+        <v>124.265152883101</v>
       </c>
       <c r="O21" t="n">
-        <v>113.6783377198532</v>
+        <v>113.6783377198533</v>
       </c>
       <c r="P21" t="n">
-        <v>91.23688807946925</v>
+        <v>91.23688807946932</v>
       </c>
       <c r="Q21" t="n">
-        <v>60.98944348993691</v>
+        <v>60.98944348993695</v>
       </c>
       <c r="R21" t="n">
-        <v>29.66487637587779</v>
+        <v>29.66487637587781</v>
       </c>
       <c r="S21" t="n">
-        <v>8.874735197219715</v>
+        <v>8.874735197219723</v>
       </c>
       <c r="T21" t="n">
-        <v>1.925828015642248</v>
+        <v>1.92582801564225</v>
       </c>
       <c r="U21" t="n">
-        <v>0.03143353670798014</v>
+        <v>0.03143353670798016</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4005628830765554</v>
+        <v>0.4005628830765557</v>
       </c>
       <c r="H22" t="n">
-        <v>3.561368178626104</v>
+        <v>3.561368178626107</v>
       </c>
       <c r="I22" t="n">
-        <v>12.0460183383386</v>
+        <v>12.04601833833861</v>
       </c>
       <c r="J22" t="n">
-        <v>28.31979583351247</v>
+        <v>28.31979583351249</v>
       </c>
       <c r="K22" t="n">
-        <v>46.53812405198525</v>
+        <v>46.53812405198529</v>
       </c>
       <c r="L22" t="n">
-        <v>59.55277627121808</v>
+        <v>59.55277627121812</v>
       </c>
       <c r="M22" t="n">
-        <v>62.79005266262767</v>
+        <v>62.79005266262772</v>
       </c>
       <c r="N22" t="n">
-        <v>61.29704555297874</v>
+        <v>61.29704555297879</v>
       </c>
       <c r="O22" t="n">
-        <v>56.61774278249351</v>
+        <v>56.61774278249355</v>
       </c>
       <c r="P22" t="n">
-        <v>48.44625996773173</v>
+        <v>48.44625996773178</v>
       </c>
       <c r="Q22" t="n">
-        <v>33.54167923652866</v>
+        <v>33.54167923652868</v>
       </c>
       <c r="R22" t="n">
-        <v>18.01076381542402</v>
+        <v>18.01076381542404</v>
       </c>
       <c r="S22" t="n">
-        <v>6.980718607797786</v>
+        <v>6.980718607797791</v>
       </c>
       <c r="T22" t="n">
-        <v>1.711495954963464</v>
+        <v>1.711495954963465</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0218488845314485</v>
+        <v>0.02184888453144852</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32809,7 +32809,7 @@
         <v>91.23688807946924</v>
       </c>
       <c r="Q24" t="n">
-        <v>60.98944348993697</v>
+        <v>60.9894434899369</v>
       </c>
       <c r="R24" t="n">
         <v>29.66487637587779</v>
@@ -33037,7 +33037,7 @@
         <v>121.0610277080008</v>
       </c>
       <c r="N27" t="n">
-        <v>124.2651528831009</v>
+        <v>124.2651528831008</v>
       </c>
       <c r="O27" t="n">
         <v>113.6783377198532</v>
@@ -33274,7 +33274,7 @@
         <v>121.0610277080008</v>
       </c>
       <c r="N30" t="n">
-        <v>124.2651528831009</v>
+        <v>124.2651528831007</v>
       </c>
       <c r="O30" t="n">
         <v>113.6783377198532</v>
@@ -33502,7 +33502,7 @@
         <v>45.14065428177333</v>
       </c>
       <c r="K33" t="n">
-        <v>77.15256806518013</v>
+        <v>77.15256806518029</v>
       </c>
       <c r="L33" t="n">
         <v>103.7411489819037</v>
@@ -33754,7 +33754,7 @@
         <v>113.6783377198532</v>
       </c>
       <c r="P36" t="n">
-        <v>91.23688807946908</v>
+        <v>91.23688807946925</v>
       </c>
       <c r="Q36" t="n">
         <v>60.98944348993691</v>
@@ -34213,7 +34213,7 @@
         <v>45.14065428177333</v>
       </c>
       <c r="K42" t="n">
-        <v>77.15256806518008</v>
+        <v>77.15256806518029</v>
       </c>
       <c r="L42" t="n">
         <v>103.7411489819037</v>
@@ -34231,7 +34231,7 @@
         <v>91.23688807946925</v>
       </c>
       <c r="Q42" t="n">
-        <v>60.98944348993691</v>
+        <v>60.9894434899368</v>
       </c>
       <c r="R42" t="n">
         <v>29.66487637587779</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>16.91759786102739</v>
+        <v>16.91759786102735</v>
       </c>
       <c r="L11" t="n">
-        <v>36.08395140845845</v>
+        <v>36.08395140845839</v>
       </c>
       <c r="M11" t="n">
-        <v>53.10602752941257</v>
+        <v>53.10602752941251</v>
       </c>
       <c r="N11" t="n">
-        <v>55.85280563954889</v>
+        <v>55.85280563954883</v>
       </c>
       <c r="O11" t="n">
-        <v>47.28488641963959</v>
+        <v>47.28488641963953</v>
       </c>
       <c r="P11" t="n">
-        <v>26.24251077871533</v>
+        <v>26.24251077871527</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>16.20741738234745</v>
+        <v>16.20741738234742</v>
       </c>
       <c r="L12" t="n">
-        <v>40.74300326266307</v>
+        <v>40.74300326266302</v>
       </c>
       <c r="M12" t="n">
-        <v>55.46388188196018</v>
+        <v>39.50753471220094</v>
       </c>
       <c r="N12" t="n">
-        <v>59.47267904092708</v>
+        <v>59.47267904092699</v>
       </c>
       <c r="O12" t="n">
-        <v>32.4275191722631</v>
+        <v>48.38386634202219</v>
       </c>
       <c r="P12" t="n">
-        <v>30.92333669150128</v>
+        <v>30.92333669150125</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.2499422051400018</v>
+        <v>0.2499422051399804</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35573,13 +35573,13 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9729279606828172</v>
+        <v>0.9729279606827888</v>
       </c>
       <c r="M13" t="n">
-        <v>2.358750080319695</v>
+        <v>2.358750080319673</v>
       </c>
       <c r="N13" t="n">
-        <v>5.517106691544996</v>
+        <v>5.517106691544967</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>16.91759786102739</v>
+        <v>16.91759786102735</v>
       </c>
       <c r="L14" t="n">
-        <v>36.08395140845845</v>
+        <v>36.08395140845839</v>
       </c>
       <c r="M14" t="n">
-        <v>53.10602752941257</v>
+        <v>53.10602752941251</v>
       </c>
       <c r="N14" t="n">
-        <v>55.85280563954889</v>
+        <v>55.85280563954883</v>
       </c>
       <c r="O14" t="n">
-        <v>47.28488641963959</v>
+        <v>47.28488641963953</v>
       </c>
       <c r="P14" t="n">
-        <v>26.24251077871533</v>
+        <v>26.24251077871527</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2510702125881865</v>
+        <v>0.2510702125883605</v>
       </c>
       <c r="L15" t="n">
-        <v>40.74300326266307</v>
+        <v>40.74300326266302</v>
       </c>
       <c r="M15" t="n">
-        <v>55.46388188196018</v>
+        <v>55.46388188196014</v>
       </c>
       <c r="N15" t="n">
-        <v>59.47267904092705</v>
+        <v>59.47267904092703</v>
       </c>
       <c r="O15" t="n">
-        <v>48.38386634202225</v>
+        <v>48.38386634202219</v>
       </c>
       <c r="P15" t="n">
-        <v>30.92333669150128</v>
+        <v>30.92333669150125</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.2499422051400018</v>
+        <v>0.2499422051399804</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35810,13 +35810,13 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0.9729279606828172</v>
+        <v>0.9729279606827888</v>
       </c>
       <c r="M16" t="n">
-        <v>2.358750080319695</v>
+        <v>2.358750080319673</v>
       </c>
       <c r="N16" t="n">
-        <v>5.517106691544996</v>
+        <v>5.517106691544967</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>2.467499168241517</v>
+        <v>2.467499168241574</v>
       </c>
       <c r="K17" t="n">
-        <v>24.45480817519267</v>
+        <v>24.45480817519275</v>
       </c>
       <c r="L17" t="n">
-        <v>45.43452728890723</v>
+        <v>45.43452728890735</v>
       </c>
       <c r="M17" t="n">
-        <v>63.51034485950051</v>
+        <v>63.51034485950065</v>
       </c>
       <c r="N17" t="n">
-        <v>66.42547570141654</v>
+        <v>66.42547570141666</v>
       </c>
       <c r="O17" t="n">
-        <v>57.26835895343528</v>
+        <v>57.26835895343542</v>
       </c>
       <c r="P17" t="n">
-        <v>34.76317361050968</v>
+        <v>34.76317361050977</v>
       </c>
       <c r="Q17" t="n">
-        <v>6.398662934967135</v>
+        <v>6.398662934967206</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>21.3267852805649</v>
+        <v>21.32678528056496</v>
       </c>
       <c r="L18" t="n">
-        <v>47.6266251710547</v>
+        <v>47.62662517105478</v>
       </c>
       <c r="M18" t="n">
-        <v>63.49674396958334</v>
+        <v>63.49674396958344</v>
       </c>
       <c r="N18" t="n">
-        <v>71.07175948935091</v>
+        <v>71.071759489351</v>
       </c>
       <c r="O18" t="n">
-        <v>55.92685871985319</v>
+        <v>55.92685871985328</v>
       </c>
       <c r="P18" t="n">
-        <v>36.97725307666551</v>
+        <v>36.97725307666558</v>
       </c>
       <c r="Q18" t="n">
-        <v>4.296824985098191</v>
+        <v>4.296824985098233</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36047,16 +36047,16 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>4.924482377316572</v>
+        <v>4.924482377316615</v>
       </c>
       <c r="M19" t="n">
-        <v>6.525110163847629</v>
+        <v>6.525110163847678</v>
       </c>
       <c r="N19" t="n">
-        <v>9.584400044559303</v>
+        <v>9.584400044559352</v>
       </c>
       <c r="O19" t="n">
-        <v>0.5428447094971816</v>
+        <v>0.5428447094972242</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>2.467499168241517</v>
+        <v>2.467499168241574</v>
       </c>
       <c r="K20" t="n">
-        <v>24.45480817519267</v>
+        <v>24.45480817519275</v>
       </c>
       <c r="L20" t="n">
-        <v>45.43452728890723</v>
+        <v>45.43452728890735</v>
       </c>
       <c r="M20" t="n">
-        <v>63.51034485950051</v>
+        <v>63.51034485950065</v>
       </c>
       <c r="N20" t="n">
-        <v>66.42547570141654</v>
+        <v>66.42547570141666</v>
       </c>
       <c r="O20" t="n">
-        <v>57.26835895343528</v>
+        <v>57.26835895343542</v>
       </c>
       <c r="P20" t="n">
-        <v>34.76317361050968</v>
+        <v>34.76317361050977</v>
       </c>
       <c r="Q20" t="n">
-        <v>6.398662934967135</v>
+        <v>6.398662934967206</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>21.32678528056491</v>
+        <v>21.32678528056496</v>
       </c>
       <c r="L21" t="n">
-        <v>47.6266251710547</v>
+        <v>47.62662517105478</v>
       </c>
       <c r="M21" t="n">
-        <v>63.49674396958334</v>
+        <v>63.49674396958344</v>
       </c>
       <c r="N21" t="n">
-        <v>71.07175948935091</v>
+        <v>71.071759489351</v>
       </c>
       <c r="O21" t="n">
-        <v>55.92685871985319</v>
+        <v>55.92685871985328</v>
       </c>
       <c r="P21" t="n">
-        <v>36.97725307666551</v>
+        <v>36.97725307666558</v>
       </c>
       <c r="Q21" t="n">
-        <v>4.296824985098191</v>
+        <v>4.296824985098233</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36284,16 +36284,16 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>4.924482377316572</v>
+        <v>4.924482377316615</v>
       </c>
       <c r="M22" t="n">
-        <v>6.525110163847629</v>
+        <v>6.525110163847678</v>
       </c>
       <c r="N22" t="n">
-        <v>9.584400044559303</v>
+        <v>9.584400044559352</v>
       </c>
       <c r="O22" t="n">
-        <v>0.5428447094971816</v>
+        <v>0.5428447094972242</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>36.97725307666549</v>
       </c>
       <c r="Q24" t="n">
-        <v>4.296824985098251</v>
+        <v>4.296824985098183</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36685,7 +36685,7 @@
         <v>63.49674396958334</v>
       </c>
       <c r="N27" t="n">
-        <v>71.07175948935091</v>
+        <v>71.07175948935077</v>
       </c>
       <c r="O27" t="n">
         <v>55.92685871985319</v>
@@ -36922,7 +36922,7 @@
         <v>63.49674396958334</v>
       </c>
       <c r="N30" t="n">
-        <v>71.07175948935091</v>
+        <v>71.07175948935071</v>
       </c>
       <c r="O30" t="n">
         <v>55.92685871985319</v>
@@ -37150,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>21.32678528056474</v>
+        <v>21.3267852805649</v>
       </c>
       <c r="L33" t="n">
         <v>47.6266251710547</v>
@@ -37402,7 +37402,7 @@
         <v>55.92685871985319</v>
       </c>
       <c r="P36" t="n">
-        <v>36.97725307666533</v>
+        <v>36.97725307666551</v>
       </c>
       <c r="Q36" t="n">
         <v>4.296824985098191</v>
@@ -37861,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>21.32678528056469</v>
+        <v>21.3267852805649</v>
       </c>
       <c r="L42" t="n">
         <v>47.6266251710547</v>
@@ -37879,7 +37879,7 @@
         <v>36.97725307666551</v>
       </c>
       <c r="Q42" t="n">
-        <v>4.296824985098191</v>
+        <v>4.296824985098079</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
